--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,20 +57,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H2" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>5492</v>
       </c>
       <c r="N2" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H3" t="n">
-        <v>292.7</v>
+        <v>32.56</v>
       </c>
       <c r="I3" t="n">
-        <v>13.00222723999797</v>
+        <v>1.061904705068216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9990013673655423</v>
+        <v>0.9998351447890155</v>
       </c>
       <c r="K3" t="n">
-        <v>1.014001367365542</v>
+        <v>1.014835144789015</v>
       </c>
       <c r="L3" t="n">
-        <v>1.014001367365542</v>
+        <v>1.014835144789015</v>
       </c>
       <c r="M3" t="n">
-        <v>5485.362076927985</v>
+        <v>5489.872495953553</v>
       </c>
       <c r="N3" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>900143.6903080947</v>
+        <v>32945.61748786066</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -762,31 +762,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>486.63</v>
+        <v>103.52</v>
       </c>
       <c r="I4" t="n">
-        <v>35.14364764106199</v>
+        <v>2.304301132754978</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9983138812924136</v>
+        <v>0.9992925601057381</v>
       </c>
       <c r="K4" t="n">
-        <v>1.013313881292414</v>
+        <v>1.014292560105738</v>
       </c>
       <c r="L4" t="n">
-        <v>1.013313881292414</v>
+        <v>1.014292560105738</v>
       </c>
       <c r="M4" t="n">
-        <v>5481.643038517066</v>
+        <v>5486.937318999202</v>
       </c>
       <c r="N4" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
-        <v>959612.9476014421</v>
+        <v>417118.7729682046</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H5" t="n">
-        <v>683.91</v>
+        <v>214.3</v>
       </c>
       <c r="I5" t="n">
-        <v>69.27159106654968</v>
+        <v>7.279250340311534</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9976145193963334</v>
+        <v>0.9984454979409484</v>
       </c>
       <c r="K5" t="n">
-        <v>1.012614519396333</v>
+        <v>1.013445497940948</v>
       </c>
       <c r="L5" t="n">
-        <v>1.012614519396333</v>
+        <v>1.013445497940948</v>
       </c>
       <c r="M5" t="n">
-        <v>5477.859756416793</v>
+        <v>5482.355034571313</v>
       </c>
       <c r="N5" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O5" t="n">
-        <v>865800.7207997747</v>
+        <v>532010.67914817</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -930,31 +930,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H6" t="n">
-        <v>874.77</v>
+        <v>354.63</v>
       </c>
       <c r="I6" t="n">
-        <v>113.4272449176952</v>
+        <v>18.89392621697756</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9969379165400587</v>
+        <v>0.9973724862638863</v>
       </c>
       <c r="K6" t="n">
-        <v>1.011937916540059</v>
+        <v>1.012372486263886</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011937916540059</v>
+        <v>1.012372486263886</v>
       </c>
       <c r="M6" t="n">
-        <v>5474.199592073432</v>
+        <v>5476.550449142845</v>
       </c>
       <c r="N6" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O6" t="n">
-        <v>821404.4511367668</v>
+        <v>646575.4235391353</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1014,31 +1014,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H7" t="n">
-        <v>1044.77</v>
+        <v>489.91</v>
       </c>
       <c r="I7" t="n">
-        <v>161.9805940527099</v>
+        <v>35.71181651694326</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9963352628380431</v>
+        <v>0.9963380886320687</v>
       </c>
       <c r="K7" t="n">
-        <v>1.011335262838043</v>
+        <v>1.011338088632069</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011335262838043</v>
+        <v>1.011338088632069</v>
       </c>
       <c r="M7" t="n">
-        <v>5470.939464553934</v>
+        <v>5470.954751025811</v>
       </c>
       <c r="N7" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O7" t="n">
-        <v>722379.1777374061</v>
+        <v>574744.0230088545</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H8" t="n">
-        <v>1207.96</v>
+        <v>628.4299999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>216.7642200027469</v>
+        <v>58.65051728328666</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9957567507343259</v>
+        <v>0.99527891684053</v>
       </c>
       <c r="K8" t="n">
-        <v>1.010756750734326</v>
+        <v>1.01027891684053</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010756750734326</v>
+        <v>1.01027891684053</v>
       </c>
       <c r="M8" t="n">
-        <v>5467.809933907423</v>
+        <v>5465.225034118867</v>
       </c>
       <c r="N8" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O8" t="n">
-        <v>732896.2096969109</v>
+        <v>574696.2477093529</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1182,31 +1182,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H9" t="n">
-        <v>1374.04</v>
+        <v>739.0699999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>280.7401923588696</v>
+        <v>81.12847065335886</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9951679935176744</v>
+        <v>0.9944329251641234</v>
       </c>
       <c r="K9" t="n">
-        <v>1.010167993517674</v>
+        <v>1.009432925164123</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010167993517674</v>
+        <v>1.009432925164123</v>
       </c>
       <c r="M9" t="n">
-        <v>5464.624981093081</v>
+        <v>5460.648540626345</v>
       </c>
       <c r="N9" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O9" t="n">
-        <v>765270.4440500352</v>
+        <v>518978.9948003975</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1266,31 +1266,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H10" t="n">
-        <v>1520.34</v>
+        <v>818.6999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>343.9680559872804</v>
+        <v>99.59060480588657</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9946493568317633</v>
+        <v>0.9938240466645548</v>
       </c>
       <c r="K10" t="n">
-        <v>1.009649356831763</v>
+        <v>1.008824046664555</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009649356831763</v>
+        <v>1.008824046664555</v>
       </c>
       <c r="M10" t="n">
-        <v>5461.819353704243</v>
+        <v>5457.354739317509</v>
       </c>
       <c r="N10" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>693829.2152596301</v>
+        <v>415430.0248018636</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1350,31 +1350,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H11" t="n">
-        <v>1676.17</v>
+        <v>864.76</v>
       </c>
       <c r="I11" t="n">
-        <v>418.3934184045988</v>
+        <v>111.1423876470892</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9940969360883216</v>
+        <v>0.9934718559865424</v>
       </c>
       <c r="K11" t="n">
-        <v>1.009096936088322</v>
+        <v>1.008471855986542</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009096936088322</v>
+        <v>1.008471855986542</v>
       </c>
       <c r="M11" t="n">
-        <v>5458.830967402106</v>
+        <v>5455.44952158192</v>
       </c>
       <c r="N11" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>808128.1237618699</v>
+        <v>256450.9001311366</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1434,31 +1434,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H12" t="n">
-        <v>1819.62</v>
+        <v>885.99</v>
       </c>
       <c r="I12" t="n">
-        <v>493.3609937845214</v>
+        <v>116.6822189505304</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9935884027144737</v>
+        <v>0.9933095240696036</v>
       </c>
       <c r="K12" t="n">
-        <v>1.008588402714474</v>
+        <v>1.008309524069604</v>
       </c>
       <c r="L12" t="n">
-        <v>1.008588402714474</v>
+        <v>1.008309524069604</v>
       </c>
       <c r="M12" t="n">
-        <v>5456.07999509227</v>
+        <v>5454.571367597409</v>
       </c>
       <c r="N12" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>829533.2331495725</v>
+        <v>38185.07311212765</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1518,31 +1518,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H13" t="n">
-        <v>1963.82</v>
+        <v>897.8200000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>574.9570962714655</v>
+        <v>119.8281450188692</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9930772105742934</v>
+        <v>0.9932190678012387</v>
       </c>
       <c r="K13" t="n">
-        <v>1.008077210574293</v>
+        <v>1.008219067801239</v>
       </c>
       <c r="L13" t="n">
-        <v>1.008077210574293</v>
+        <v>1.008219067801239</v>
       </c>
       <c r="M13" t="n">
-        <v>5453.31463986691</v>
+        <v>5454.082033558936</v>
       </c>
       <c r="N13" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>889115.6627491731</v>
+        <v>27271.63350289087</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1602,31 +1602,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H14" t="n">
-        <v>2110.17</v>
+        <v>914.1</v>
       </c>
       <c r="I14" t="n">
-        <v>664.1631572116485</v>
+        <v>124.2264444106361</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9925583966372935</v>
+        <v>0.9930945852949851</v>
       </c>
       <c r="K14" t="n">
-        <v>1.007558396637293</v>
+        <v>1.008094585294985</v>
       </c>
       <c r="L14" t="n">
-        <v>1.007558396637293</v>
+        <v>1.008094585294985</v>
       </c>
       <c r="M14" t="n">
-        <v>5450.508053617035</v>
+        <v>5453.408630503456</v>
       </c>
       <c r="N14" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>894113.4608656834</v>
+        <v>32722.47199218718</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1686,31 +1686,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H15" t="n">
-        <v>2256.52</v>
+        <v>930.38</v>
       </c>
       <c r="I15" t="n">
-        <v>759.8099005857672</v>
+        <v>128.7046606374433</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9920395827002937</v>
+        <v>0.9929701027887315</v>
       </c>
       <c r="K15" t="n">
-        <v>1.007039582700294</v>
+        <v>1.007970102788732</v>
       </c>
       <c r="L15" t="n">
-        <v>1.007039582700294</v>
+        <v>1.007970102788732</v>
       </c>
       <c r="M15" t="n">
-        <v>5447.701467367162</v>
+        <v>5452.735227447978</v>
       </c>
       <c r="N15" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>893653.1807207041</v>
+        <v>32718.4315738543</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1770,31 +1770,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2450.45</v>
+        <v>1001.34</v>
       </c>
       <c r="I16" t="n">
-        <v>896.4744245468574</v>
+        <v>149.1572779011981</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9913520966271649</v>
+        <v>0.992427518105454</v>
       </c>
       <c r="K16" t="n">
-        <v>1.006352096627165</v>
+        <v>1.007427518105454</v>
       </c>
       <c r="L16" t="n">
-        <v>1.006352096627165</v>
+        <v>1.007427518105454</v>
       </c>
       <c r="M16" t="n">
-        <v>5443.982428956243</v>
+        <v>5449.800050493625</v>
       </c>
       <c r="N16" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
-        <v>953022.3409282978</v>
+        <v>414296.3405617809</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1854,31 +1854,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2647.73</v>
+        <v>1112.12</v>
       </c>
       <c r="I17" t="n">
-        <v>1047.103775028097</v>
+        <v>184.1224788593129</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9906527347310847</v>
+        <v>0.9915804559406644</v>
       </c>
       <c r="K17" t="n">
-        <v>1.005652734731085</v>
+        <v>1.006580455940664</v>
       </c>
       <c r="L17" t="n">
-        <v>1.005652734731085</v>
+        <v>1.006580455940664</v>
       </c>
       <c r="M17" t="n">
-        <v>5440.19914685597</v>
+        <v>5445.217766065736</v>
       </c>
       <c r="N17" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O17" t="n">
-        <v>859850.3444891649</v>
+        <v>528408.364103129</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1938,31 +1938,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H18" t="n">
-        <v>2838.59</v>
+        <v>1252.45</v>
       </c>
       <c r="I18" t="n">
-        <v>1203.969579683485</v>
+        <v>233.7271531847589</v>
       </c>
       <c r="J18" t="n">
-        <v>0.98997613187481</v>
+        <v>0.9905074442636024</v>
       </c>
       <c r="K18" t="n">
-        <v>1.00497613187481</v>
+        <v>1.005507444263602</v>
       </c>
       <c r="L18" t="n">
-        <v>1.00497613187481</v>
+        <v>1.005507444263602</v>
       </c>
       <c r="M18" t="n">
-        <v>5436.538982512609</v>
+        <v>5439.413180637268</v>
       </c>
       <c r="N18" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O18" t="n">
-        <v>815755.3597026435</v>
+        <v>642193.2258554773</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2022,31 +2022,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3008.59</v>
+        <v>1387.73</v>
       </c>
       <c r="I19" t="n">
-        <v>1352.914449497118</v>
+        <v>287.1679109410843</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9893734781727944</v>
+        <v>0.9894730466317848</v>
       </c>
       <c r="K19" t="n">
-        <v>1.004373478172794</v>
+        <v>1.004473046631785</v>
       </c>
       <c r="L19" t="n">
-        <v>1.004373478172794</v>
+        <v>1.004473046631785</v>
       </c>
       <c r="M19" t="n">
-        <v>5433.278854993112</v>
+        <v>5433.817482520236</v>
       </c>
       <c r="N19" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O19" t="n">
-        <v>717407.9772753776</v>
+        <v>570844.609815769</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2106,31 +2106,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H20" t="n">
-        <v>3171.78</v>
+        <v>1526.25</v>
       </c>
       <c r="I20" t="n">
-        <v>1504.068029915059</v>
+        <v>347.6066087510035</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9887949660690772</v>
+        <v>0.988413874840246</v>
       </c>
       <c r="K20" t="n">
-        <v>1.003794966069077</v>
+        <v>1.003413874840246</v>
       </c>
       <c r="L20" t="n">
-        <v>1.003794966069077</v>
+        <v>1.003413874840246</v>
       </c>
       <c r="M20" t="n">
-        <v>5430.149324346602</v>
+        <v>5428.087765613291</v>
       </c>
       <c r="N20" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O20" t="n">
-        <v>727849.6880157607</v>
+        <v>570793.1207894168</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2190,31 +2190,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H21" t="n">
-        <v>3334.97</v>
+        <v>1664.77</v>
       </c>
       <c r="I21" t="n">
-        <v>1663.229784641042</v>
+        <v>413.8309869762356</v>
       </c>
       <c r="J21" t="n">
-        <v>0.98821645396536</v>
+        <v>0.9873547030487072</v>
       </c>
       <c r="K21" t="n">
-        <v>1.00321645396536</v>
+        <v>1.002354703048707</v>
       </c>
       <c r="L21" t="n">
-        <v>1.00321645396536</v>
+        <v>1.002354703048707</v>
       </c>
       <c r="M21" t="n">
-        <v>5427.01979370009</v>
+        <v>5422.358048706347</v>
       </c>
       <c r="N21" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O21" t="n">
-        <v>727430.3309091283</v>
+        <v>570190.9275424969</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2274,31 +2274,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H22" t="n">
-        <v>3501.05</v>
+        <v>1775.41</v>
       </c>
       <c r="I22" t="n">
-        <v>1833.432361734643</v>
+        <v>470.8824846290934</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9876276967487085</v>
+        <v>0.9865087113723006</v>
       </c>
       <c r="K22" t="n">
-        <v>1.002627696748708</v>
+        <v>1.0015087113723</v>
       </c>
       <c r="L22" t="n">
-        <v>1.002627696748708</v>
+        <v>1.0015087113723</v>
       </c>
       <c r="M22" t="n">
-        <v>5423.834840885748</v>
+        <v>5417.781555213824</v>
       </c>
       <c r="N22" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O22" t="n">
-        <v>759559.8244210086</v>
+        <v>514906.6311862082</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2358,31 +2358,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H23" t="n">
-        <v>3647.35</v>
+        <v>1855.04</v>
       </c>
       <c r="I23" t="n">
-        <v>1990.235323346513</v>
+        <v>514.2279460704694</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9871090600627974</v>
+        <v>0.9858998328727321</v>
       </c>
       <c r="K23" t="n">
-        <v>1.002109060062797</v>
+        <v>1.000899832872732</v>
       </c>
       <c r="L23" t="n">
-        <v>1.002109060062797</v>
+        <v>1.000899832872732</v>
       </c>
       <c r="M23" t="n">
-        <v>5421.02921349691</v>
+        <v>5414.487753904988</v>
       </c>
       <c r="N23" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>688648.8674532989</v>
+        <v>412167.8472119708</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2442,31 +2442,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H24" t="n">
-        <v>3803.18</v>
+        <v>1901.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2164.331277142934</v>
+        <v>540.1728728891223</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9865566393193558</v>
+        <v>0.9855476421947197</v>
       </c>
       <c r="K24" t="n">
-        <v>1.001556639319356</v>
+        <v>1.00054764219472</v>
       </c>
       <c r="L24" t="n">
-        <v>1.001556639319356</v>
+        <v>1.00054764219472</v>
       </c>
       <c r="M24" t="n">
-        <v>5418.040827194774</v>
+        <v>5412.5825361694</v>
       </c>
       <c r="N24" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O24" t="n">
-        <v>802091.1830111846</v>
+        <v>254436.1518167481</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2526,31 +2526,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H25" t="n">
-        <v>3946.63</v>
+        <v>1922.33</v>
       </c>
       <c r="I25" t="n">
-        <v>2331.051058987157</v>
+        <v>552.3467998643237</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9860481059455078</v>
+        <v>0.9853853102777809</v>
       </c>
       <c r="K25" t="n">
-        <v>1.001048105945508</v>
+        <v>1.000385310277781</v>
       </c>
       <c r="L25" t="n">
-        <v>1.001048105945508</v>
+        <v>1.000385310277781</v>
       </c>
       <c r="M25" t="n">
-        <v>5415.289854884938</v>
+        <v>5411.704382184889</v>
       </c>
       <c r="N25" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>823333.1318380581</v>
+        <v>37885.00421424001</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2610,31 +2610,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H26" t="n">
-        <v>4090.83</v>
+        <v>1934.16</v>
       </c>
       <c r="I26" t="n">
-        <v>2504.879076232919</v>
+        <v>559.1894452824939</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9855369138053276</v>
+        <v>0.985294854009416</v>
       </c>
       <c r="K26" t="n">
-        <v>1.000536913805327</v>
+        <v>1.000294854009416</v>
       </c>
       <c r="L26" t="n">
-        <v>1.000536913805327</v>
+        <v>1.000294854009416</v>
       </c>
       <c r="M26" t="n">
-        <v>5412.524499659576</v>
+        <v>5411.215048146416</v>
       </c>
       <c r="N26" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>882466.8698953778</v>
+        <v>27057.29857582826</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2694,31 +2694,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H27" t="n">
-        <v>4237.18</v>
+        <v>1950.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2687.692215709529</v>
+        <v>568.675030474367</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9850180998683277</v>
+        <v>0.9851703715031623</v>
       </c>
       <c r="K27" t="n">
-        <v>1.000018099868328</v>
+        <v>1.000170371503162</v>
       </c>
       <c r="L27" t="n">
-        <v>1.000018099868328</v>
+        <v>1.000170371503162</v>
       </c>
       <c r="M27" t="n">
-        <v>5409.717913409702</v>
+        <v>5410.541645090936</v>
       </c>
       <c r="N27" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>887423.8778716808</v>
+        <v>32465.27007971206</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2778,31 +2778,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>4431.110000000001</v>
+        <v>2021.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2939.861893043741</v>
+        <v>610.9533788045264</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9843306137951989</v>
+        <v>0.9846277868198849</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9993306137951989</v>
+        <v>0.999627786819885</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9993306137951989</v>
+        <v>0.999627786819885</v>
       </c>
       <c r="M28" t="n">
-        <v>5405.998874998784</v>
+        <v>5407.606468136586</v>
       </c>
       <c r="N28" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
-        <v>946375.2189857425</v>
+        <v>411089.6283026459</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2862,31 +2862,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H29" t="n">
-        <v>4628.39</v>
+        <v>2132.18</v>
       </c>
       <c r="I29" t="n">
-        <v>3207.991664591598</v>
+        <v>679.9920646490044</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9836312518991187</v>
+        <v>0.9837807246550953</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9986312518991187</v>
+        <v>0.9987807246550953</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9986312518991187</v>
+        <v>0.9987807246550953</v>
       </c>
       <c r="M29" t="n">
-        <v>5402.21559289851</v>
+        <v>5403.024183708696</v>
       </c>
       <c r="N29" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O29" t="n">
-        <v>853848.9429638863</v>
+        <v>524315.5866144962</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2946,31 +2946,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H30" t="n">
-        <v>4819.25</v>
+        <v>2272.51</v>
       </c>
       <c r="I30" t="n">
-        <v>3478.534123569647</v>
+        <v>772.7591521727111</v>
       </c>
       <c r="J30" t="n">
-        <v>0.982954649042844</v>
+        <v>0.9827077129780332</v>
       </c>
       <c r="K30" t="n">
-        <v>0.997954649042844</v>
+        <v>0.9977077129780332</v>
       </c>
       <c r="L30" t="n">
-        <v>0.997954649042844</v>
+        <v>0.9977077129780332</v>
       </c>
       <c r="M30" t="n">
-        <v>5398.55542855515</v>
+        <v>5397.219598280228</v>
       </c>
       <c r="N30" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O30" t="n">
-        <v>810057.8266090245</v>
+        <v>637214.3831373465</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3030,31 +3030,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H31" t="n">
-        <v>4989.25</v>
+        <v>2407.79</v>
       </c>
       <c r="I31" t="n">
-        <v>3728.731383799567</v>
+        <v>867.8090544986991</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9823519953408284</v>
+        <v>0.9816733153462156</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9973519953408284</v>
+        <v>0.9966733153462156</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9973519953408284</v>
+        <v>0.9966733153462156</v>
       </c>
       <c r="M31" t="n">
-        <v>5395.295301035652</v>
+        <v>5391.623900163195</v>
       </c>
       <c r="N31" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O31" t="n">
-        <v>712394.1481529929</v>
+        <v>566414.2836682796</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3114,31 +3114,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H32" t="n">
-        <v>5152.44</v>
+        <v>2546.31</v>
       </c>
       <c r="I32" t="n">
-        <v>3977.081302994177</v>
+        <v>970.8534494241536</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9817734832371112</v>
+        <v>0.9806141435546769</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9967734832371112</v>
+        <v>0.9956141435546769</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9967734832371112</v>
+        <v>0.9956141435546769</v>
       </c>
       <c r="M32" t="n">
-        <v>5392.165770389141</v>
+        <v>5385.894183256251</v>
       </c>
       <c r="N32" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O32" t="n">
-        <v>722759.8917854612</v>
+        <v>566358.5752836919</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3198,31 +3198,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H33" t="n">
-        <v>5315.629999999999</v>
+        <v>2684.83</v>
       </c>
       <c r="I33" t="n">
-        <v>4233.439396496829</v>
+        <v>1079.683524764921</v>
       </c>
       <c r="J33" t="n">
-        <v>0.981194971133394</v>
+        <v>0.9795549717631381</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9961949711333941</v>
+        <v>0.9945549717631381</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9961949711333941</v>
+        <v>0.9945549717631381</v>
       </c>
       <c r="M33" t="n">
-        <v>5389.036239742631</v>
+        <v>5380.164466349307</v>
       </c>
       <c r="N33" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O33" t="n">
-        <v>722340.5346788288</v>
+        <v>565756.3820367721</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3282,31 +3282,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H34" t="n">
-        <v>5481.709999999999</v>
+        <v>2795.47</v>
       </c>
       <c r="I34" t="n">
-        <v>4502.559603004177</v>
+        <v>1170.765446391666</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9806062139167425</v>
+        <v>0.9787089800867315</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9956062139167425</v>
+        <v>0.9937089800867315</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9956062139167425</v>
+        <v>0.9937089800867315</v>
       </c>
       <c r="M34" t="n">
-        <v>5385.851286928289</v>
+        <v>5375.587972856784</v>
       </c>
       <c r="N34" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O34" t="n">
-        <v>754242.1268669643</v>
+        <v>510898.2408622893</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3366,31 +3366,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H35" t="n">
-        <v>5628.009999999999</v>
+        <v>2875.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4746.499180603711</v>
+        <v>1238.603339693496</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9800875772308315</v>
+        <v>0.9781001015871629</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9950875772308315</v>
+        <v>0.9931001015871629</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9950875772308315</v>
+        <v>0.9931001015871629</v>
       </c>
       <c r="M35" t="n">
-        <v>5383.045659539451</v>
+        <v>5372.294171547948</v>
       </c>
       <c r="N35" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>683824.9561007015</v>
+        <v>408956.9155946</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3450,31 +3450,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H36" t="n">
-        <v>5783.839999999999</v>
+        <v>2921.16</v>
       </c>
       <c r="I36" t="n">
-        <v>5013.407840274071</v>
+        <v>1278.715306716751</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9795351564873898</v>
+        <v>0.9777479109091505</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9945351564873898</v>
+        <v>0.9927479109091505</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9945351564873898</v>
+        <v>0.9927479109091505</v>
       </c>
       <c r="M36" t="n">
-        <v>5380.057273237313</v>
+        <v>5370.388953812359</v>
       </c>
       <c r="N36" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O36" t="n">
-        <v>796469.6170254806</v>
+        <v>252453.0534459672</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3534,31 +3534,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H37" t="n">
-        <v>5927.289999999999</v>
+        <v>2942.39</v>
       </c>
       <c r="I37" t="n">
-        <v>5265.566771560744</v>
+        <v>1297.419113490991</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9790266231135419</v>
+        <v>0.9775855789922117</v>
       </c>
       <c r="K37" t="n">
-        <v>0.994026623113542</v>
+        <v>0.9925855789922117</v>
       </c>
       <c r="L37" t="n">
-        <v>0.994026623113542</v>
+        <v>0.9925855789922117</v>
       </c>
       <c r="M37" t="n">
-        <v>5377.306300927478</v>
+        <v>5369.510799827848</v>
       </c>
       <c r="N37" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
-        <v>817559.6316365242</v>
+        <v>37589.64913774072</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3618,31 +3618,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H38" t="n">
-        <v>6071.489999999999</v>
+        <v>2954.22</v>
       </c>
       <c r="I38" t="n">
-        <v>5525.280639971379</v>
+        <v>1307.900406013383</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9785154309733616</v>
+        <v>0.9774951227238468</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9935154309733616</v>
+        <v>0.9924951227238468</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9935154309733616</v>
+        <v>0.9924951227238468</v>
       </c>
       <c r="M38" t="n">
-        <v>5374.540945702116</v>
+        <v>5369.021465789376</v>
       </c>
       <c r="N38" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>876275.5506003118</v>
+        <v>26846.33066404306</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3702,31 +3702,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H39" t="n">
-        <v>6217.839999999999</v>
+        <v>2970.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5795.260175550482</v>
+        <v>1322.393360170322</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9779966170363618</v>
+        <v>0.9773706402175932</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9929966170363618</v>
+        <v>0.9923706402175932</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9929966170363618</v>
+        <v>0.9923706402175932</v>
       </c>
       <c r="M39" t="n">
-        <v>5371.734359452244</v>
+        <v>5368.348062733897</v>
       </c>
       <c r="N39" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
-        <v>881194.5750226574</v>
+        <v>32212.10858556981</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3786,31 +3786,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>6411.77</v>
+        <v>3041.46</v>
       </c>
       <c r="I40" t="n">
-        <v>6162.935006257813</v>
+        <v>1386.497439566887</v>
       </c>
       <c r="J40" t="n">
-        <v>0.977309130963233</v>
+        <v>0.9768280555343157</v>
       </c>
       <c r="K40" t="n">
-        <v>0.992309130963233</v>
+        <v>0.9918280555343157</v>
       </c>
       <c r="L40" t="n">
-        <v>0.992309130963233</v>
+        <v>0.9918280555343157</v>
       </c>
       <c r="M40" t="n">
-        <v>5368.015321041325</v>
+        <v>5365.412885779545</v>
       </c>
       <c r="N40" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
-        <v>939728.0970431872</v>
+        <v>407882.9160435108</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3870,31 +3870,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H41" t="n">
-        <v>6609.049999999999</v>
+        <v>3152.24</v>
       </c>
       <c r="I41" t="n">
-        <v>6548.565198872289</v>
+        <v>1489.609610297728</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9766097690671528</v>
+        <v>0.975980993369526</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9916097690671528</v>
+        <v>0.9909809933695261</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9916097690671528</v>
+        <v>0.9909809933695261</v>
       </c>
       <c r="M41" t="n">
-        <v>5364.232038941052</v>
+        <v>5360.830601351656</v>
       </c>
       <c r="N41" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O41" t="n">
-        <v>847847.5414386076</v>
+        <v>520222.8091258632</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3954,31 +3954,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H42" t="n">
-        <v>6799.909999999999</v>
+        <v>3292.57</v>
       </c>
       <c r="I42" t="n">
-        <v>6932.784312173</v>
+        <v>1625.539111019695</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9759331662108781</v>
+        <v>0.974907981692464</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9909331662108781</v>
+        <v>0.989907981692464</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9909331662108781</v>
+        <v>0.989907981692464</v>
       </c>
       <c r="M42" t="n">
-        <v>5360.57187459769</v>
+        <v>5355.026015923187</v>
       </c>
       <c r="N42" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O42" t="n">
-        <v>804360.2935154055</v>
+        <v>632235.5404192158</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4038,31 +4038,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H43" t="n">
-        <v>6969.909999999999</v>
+        <v>3427.85</v>
       </c>
       <c r="I43" t="n">
-        <v>7284.233962819206</v>
+        <v>1762.198157915346</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9753305125088625</v>
+        <v>0.9738735840606465</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9903305125088625</v>
+        <v>0.9888735840606465</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9903305125088625</v>
+        <v>0.9888735840606465</v>
       </c>
       <c r="M43" t="n">
-        <v>5357.311747078193</v>
+        <v>5349.430317806155</v>
       </c>
       <c r="N43" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O43" t="n">
-        <v>707380.3190306083</v>
+        <v>561983.9575207904</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4122,31 +4122,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H44" t="n">
-        <v>7133.099999999999</v>
+        <v>3566.37</v>
       </c>
       <c r="I44" t="n">
-        <v>7629.780220790486</v>
+        <v>1907.848249956336</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9747520004051453</v>
+        <v>0.9728144122691077</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9897520004051453</v>
+        <v>0.9878144122691077</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9897520004051453</v>
+        <v>0.9878144122691077</v>
       </c>
       <c r="M44" t="n">
-        <v>5354.182216431682</v>
+        <v>5343.70060089921</v>
       </c>
       <c r="N44" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O44" t="n">
-        <v>717670.0955551616</v>
+        <v>561924.0297779669</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4206,31 +4206,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H45" t="n">
-        <v>7296.289999999998</v>
+        <v>3704.89</v>
       </c>
       <c r="I45" t="n">
-        <v>7983.334653069807</v>
+        <v>2059.284022412638</v>
       </c>
       <c r="J45" t="n">
-        <v>0.974173488301428</v>
+        <v>0.9717552404775689</v>
       </c>
       <c r="K45" t="n">
-        <v>0.989173488301428</v>
+        <v>0.9867552404775689</v>
       </c>
       <c r="L45" t="n">
-        <v>0.989173488301428</v>
+        <v>0.9867552404775689</v>
       </c>
       <c r="M45" t="n">
-        <v>5351.052685785171</v>
+        <v>5337.970883992266</v>
       </c>
       <c r="N45" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O45" t="n">
-        <v>717250.7384485292</v>
+        <v>561321.836531047</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4290,31 +4290,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H46" t="n">
-        <v>7462.369999999998</v>
+        <v>3815.53</v>
       </c>
       <c r="I46" t="n">
-        <v>8351.372488990901</v>
+        <v>2184.39636801327</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9735847310847766</v>
+        <v>0.9709092488011623</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9885847310847766</v>
+        <v>0.9859092488011623</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9885847310847766</v>
+        <v>0.9859092488011623</v>
       </c>
       <c r="M46" t="n">
-        <v>5347.867732970829</v>
+        <v>5333.394390499743</v>
       </c>
       <c r="N46" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O46" t="n">
-        <v>748924.42931292</v>
+        <v>506889.8505383704</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4374,31 +4374,31 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H47" t="n">
-        <v>7608.669999999998</v>
+        <v>3895.16</v>
       </c>
       <c r="I47" t="n">
-        <v>8682.448682578099</v>
+        <v>2276.726693175555</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9730660943988655</v>
+        <v>0.9703003703015938</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9880660943988655</v>
+        <v>0.9853003703015938</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9880660943988655</v>
+        <v>0.9853003703015938</v>
       </c>
       <c r="M47" t="n">
-        <v>5345.062105581991</v>
+        <v>5330.100589190908</v>
       </c>
       <c r="N47" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>679001.0447481041</v>
+        <v>405745.9839772293</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4458,31 +4458,31 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H48" t="n">
-        <v>7764.499999999998</v>
+        <v>3941.22</v>
       </c>
       <c r="I48" t="n">
-        <v>9042.1700481224</v>
+        <v>2331.005700403413</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9725136736554238</v>
+        <v>0.9699481796235814</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9875136736554239</v>
+        <v>0.9849481796235814</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9875136736554239</v>
+        <v>0.9849481796235814</v>
       </c>
       <c r="M48" t="n">
-        <v>5342.073719279854</v>
+        <v>5328.195371455318</v>
       </c>
       <c r="N48" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O48" t="n">
-        <v>790848.0510397765</v>
+        <v>250469.9550751863</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4542,31 +4542,31 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H49" t="n">
-        <v>7907.949999999998</v>
+        <v>3962.45</v>
       </c>
       <c r="I49" t="n">
-        <v>9379.768128851521</v>
+        <v>2356.239386976691</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9720051402815759</v>
+        <v>0.9697858477066426</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9870051402815759</v>
+        <v>0.9847858477066426</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9870051402815759</v>
+        <v>0.9847858477066426</v>
       </c>
       <c r="M49" t="n">
-        <v>5339.322746970019</v>
+        <v>5327.317217470808</v>
       </c>
       <c r="N49" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O49" t="n">
-        <v>811786.1314349903</v>
+        <v>37294.29406124144</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4626,31 +4626,31 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H50" t="n">
-        <v>8052.149999999998</v>
+        <v>3974.28</v>
       </c>
       <c r="I50" t="n">
-        <v>9725.367848427029</v>
+        <v>2370.359326603304</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9714939481413957</v>
+        <v>0.9696953914382777</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9864939481413957</v>
+        <v>0.9846953914382777</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9864939481413957</v>
+        <v>0.9846953914382777</v>
       </c>
       <c r="M50" t="n">
-        <v>5336.557391744657</v>
+        <v>5326.827883432336</v>
       </c>
       <c r="N50" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O50" t="n">
-        <v>870084.2313052461</v>
+        <v>26635.36275225786</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4710,31 +4710,31 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H51" t="n">
-        <v>8198.499999999998</v>
+        <v>3990.56</v>
       </c>
       <c r="I51" t="n">
-        <v>10082.51378010863</v>
+        <v>2389.859649725309</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9709751342043957</v>
+        <v>0.969570908932024</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9859751342043958</v>
+        <v>0.984570908932024</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9859751342043958</v>
+        <v>0.984570908932024</v>
       </c>
       <c r="M51" t="n">
-        <v>5333.750805494783</v>
+        <v>5326.154480376856</v>
       </c>
       <c r="N51" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
-        <v>874965.272173634</v>
+        <v>31958.94709142757</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4794,31 +4794,31 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>8392.429999999998</v>
+        <v>4061.52</v>
       </c>
       <c r="I52" t="n">
-        <v>10565.69376418908</v>
+        <v>2475.789460188279</v>
       </c>
       <c r="J52" t="n">
-        <v>0.970287648131267</v>
+        <v>0.9690283242487465</v>
       </c>
       <c r="K52" t="n">
-        <v>0.985287648131267</v>
+        <v>0.9840283242487465</v>
       </c>
       <c r="L52" t="n">
-        <v>0.985287648131267</v>
+        <v>0.9840283242487465</v>
       </c>
       <c r="M52" t="n">
-        <v>5330.031767083865</v>
+        <v>5323.219303422504</v>
       </c>
       <c r="N52" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
-        <v>933080.9751006317</v>
+        <v>404676.2037843757</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4878,31 +4878,31 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H53" t="n">
-        <v>8589.709999999999</v>
+        <v>4172.3</v>
       </c>
       <c r="I53" t="n">
-        <v>11068.82437787017</v>
+        <v>2612.975115805482</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9695882862351868</v>
+        <v>0.9681812620839569</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9845882862351868</v>
+        <v>0.983181262083957</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9845882862351868</v>
+        <v>0.983181262083957</v>
       </c>
       <c r="M53" t="n">
-        <v>5326.248484983591</v>
+        <v>5318.637018994615</v>
       </c>
       <c r="N53" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O53" t="n">
-        <v>841846.139913329</v>
+        <v>516130.0316372303</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4962,31 +4962,31 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H54" t="n">
-        <v>8780.57</v>
+        <v>4312.63</v>
       </c>
       <c r="I54" t="n">
-        <v>11566.72014549355</v>
+        <v>2792.067029725711</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9689116833789121</v>
+        <v>0.9671082504068949</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9839116833789121</v>
+        <v>0.9821082504068949</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9839116833789121</v>
+        <v>0.9821082504068949</v>
       </c>
       <c r="M54" t="n">
-        <v>5322.58832064023</v>
+        <v>5312.832433566146</v>
       </c>
       <c r="N54" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O54" t="n">
-        <v>798662.7604217866</v>
+        <v>627256.6977010849</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -5046,31 +5046,31 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H55" t="n">
-        <v>8950.57</v>
+        <v>4447.91</v>
       </c>
       <c r="I55" t="n">
-        <v>12019.42218655604</v>
+        <v>2970.335221191023</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9683090296768965</v>
+        <v>0.9660738527750773</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9833090296768965</v>
+        <v>0.9810738527750773</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9833090296768965</v>
+        <v>0.9810738527750773</v>
       </c>
       <c r="M55" t="n">
-        <v>5319.328193120733</v>
+        <v>5307.236735449113</v>
       </c>
       <c r="N55" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O55" t="n">
-        <v>702366.4899082236</v>
+        <v>557553.6313733011</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -5130,31 +5130,31 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H56" t="n">
-        <v>9113.76</v>
+        <v>4586.43</v>
       </c>
       <c r="I56" t="n">
-        <v>12462.16478330399</v>
+        <v>3158.591010347549</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9677305175731793</v>
+        <v>0.9650146809835385</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9827305175731793</v>
+        <v>0.9800146809835385</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9827305175731793</v>
+        <v>0.9800146809835385</v>
       </c>
       <c r="M56" t="n">
-        <v>5316.198662474222</v>
+        <v>5301.507018542169</v>
       </c>
       <c r="N56" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O56" t="n">
-        <v>712580.299324862</v>
+        <v>557489.4842722418</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -5214,31 +5214,31 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H57" t="n">
-        <v>9276.950000000001</v>
+        <v>4724.950000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>12912.91555435999</v>
+        <v>3352.632479919388</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9671520054694621</v>
+        <v>0.9639555091919998</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9821520054694621</v>
+        <v>0.9789555091919998</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9821520054694621</v>
+        <v>0.9789555091919998</v>
       </c>
       <c r="M57" t="n">
-        <v>5313.069131827711</v>
+        <v>5295.777301635226</v>
       </c>
       <c r="N57" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O57" t="n">
-        <v>712160.9422182295</v>
+        <v>556887.291025322</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5298,31 +5298,31 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H58" t="n">
-        <v>9443.030000000001</v>
+        <v>4835.590000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>13379.87101969483</v>
+        <v>3511.775249493908</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9665632482528106</v>
+        <v>0.9631095175155931</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9815632482528106</v>
+        <v>0.9781095175155932</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9815632482528106</v>
+        <v>0.9781095175155932</v>
       </c>
       <c r="M58" t="n">
-        <v>5309.884179013369</v>
+        <v>5291.200808142703</v>
       </c>
       <c r="N58" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O58" t="n">
-        <v>743606.7317588755</v>
+        <v>502881.4602144516</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5382,31 +5382,31 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H59" t="n">
-        <v>9589.33</v>
+        <v>4915.220000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>13798.08382926969</v>
+        <v>3628.598006516645</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9660446115668996</v>
+        <v>0.9625006390160246</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9810446115668996</v>
+        <v>0.9775006390160246</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9810446115668996</v>
+        <v>0.9775006390160246</v>
       </c>
       <c r="M59" t="n">
-        <v>5307.078551624531</v>
+        <v>5287.907006833867</v>
       </c>
       <c r="N59" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O59" t="n">
-        <v>674177.1333955067</v>
+        <v>402535.0523598585</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5466,31 +5466,31 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H60" t="n">
-        <v>9745.16</v>
+        <v>4961.280000000002</v>
       </c>
       <c r="I60" t="n">
-        <v>14250.61790068793</v>
+        <v>3697.044053949107</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9654921908234578</v>
+        <v>0.9621484483380122</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9804921908234578</v>
+        <v>0.9771484483380122</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9804921908234578</v>
+        <v>0.9771484483380122</v>
       </c>
       <c r="M60" t="n">
-        <v>5304.090165322394</v>
+        <v>5286.001789098277</v>
       </c>
       <c r="N60" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O60" t="n">
-        <v>785226.4850540726</v>
+        <v>248486.8567044054</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5550,31 +5550,31 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H61" t="n">
-        <v>9888.610000000001</v>
+        <v>4982.510000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>14673.6551308595</v>
+        <v>3728.807620321423</v>
       </c>
       <c r="J61" t="n">
-        <v>0.96498365744961</v>
+        <v>0.9619861164210733</v>
       </c>
       <c r="K61" t="n">
-        <v>0.97998365744961</v>
+        <v>0.9769861164210734</v>
       </c>
       <c r="L61" t="n">
-        <v>0.97998365744961</v>
+        <v>0.9769861164210734</v>
       </c>
       <c r="M61" t="n">
-        <v>5301.339193012559</v>
+        <v>5285.123635113767</v>
       </c>
       <c r="N61" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
-        <v>806012.6312334564</v>
+        <v>36998.93898474216</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5634,31 +5634,31 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H62" t="n">
-        <v>10032.81</v>
+        <v>4994.340000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>15105.14070159989</v>
+        <v>3746.566207052258</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9644724653094296</v>
+        <v>0.9618956601527084</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9794724653094297</v>
+        <v>0.9768956601527085</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9794724653094297</v>
+        <v>0.9768956601527085</v>
       </c>
       <c r="M62" t="n">
-        <v>5298.573837787197</v>
+        <v>5284.634301075294</v>
       </c>
       <c r="N62" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>863892.9120101801</v>
+        <v>26424.39484047265</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5718,31 +5718,31 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H63" t="n">
-        <v>10179.16</v>
+        <v>5010.620000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>15549.45302938397</v>
+        <v>3771.073899139329</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9639536513724297</v>
+        <v>0.9617711776464548</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9789536513724297</v>
+        <v>0.9767711776464548</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9789536513724297</v>
+        <v>0.9767711776464548</v>
       </c>
       <c r="M63" t="n">
-        <v>5295.767251537323</v>
+        <v>5283.960898019815</v>
       </c>
       <c r="N63" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
-        <v>868735.9693246107</v>
+        <v>31705.78559728533</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5802,31 +5802,31 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H64" t="n">
-        <v>10336.29</v>
+        <v>5044.550000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>16033.66275174702</v>
+        <v>3822.408509253064</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9633966221006786</v>
+        <v>0.9615117371404852</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9783966221006786</v>
+        <v>0.9765117371404852</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9783966221006786</v>
+        <v>0.9765117371404852</v>
       </c>
       <c r="M64" t="n">
-        <v>5292.753934848272</v>
+        <v>5282.557423469912</v>
       </c>
       <c r="N64" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>831198.9131312692</v>
+        <v>58115.85076819349</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5886,31 +5886,31 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>10530.22</v>
+        <v>5115.510000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>16641.51116040792</v>
+        <v>3930.890034602099</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9627091360275498</v>
+        <v>0.9609691524572078</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9777091360275498</v>
+        <v>0.9759691524572078</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9777091360275498</v>
+        <v>0.9759691524572078</v>
       </c>
       <c r="M65" t="n">
-        <v>5289.034896437354</v>
+        <v>5279.622246515561</v>
       </c>
       <c r="N65" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
-        <v>925906.5227374923</v>
+        <v>401362.8274594479</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5970,31 +5970,31 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H66" t="n">
-        <v>10727.5</v>
+        <v>5226.290000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>17271.46375522258</v>
+        <v>4103.282552889516</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9620097741314696</v>
+        <v>0.9601220902924181</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9770097741314696</v>
+        <v>0.9751220902924181</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9770097741314696</v>
+        <v>0.9751220902924181</v>
       </c>
       <c r="M66" t="n">
-        <v>5285.25161433708</v>
+        <v>5275.039962087671</v>
       </c>
       <c r="N66" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O66" t="n">
-        <v>835368.6343511803</v>
+        <v>511901.1171172567</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6054,31 +6054,31 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H67" t="n">
-        <v>10918.36</v>
+        <v>5366.620000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>17892.05438962998</v>
+        <v>4326.972580535245</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9613331712751949</v>
+        <v>0.959049078615356</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9763331712751949</v>
+        <v>0.9740490786153561</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9763331712751949</v>
+        <v>0.9740490786153561</v>
       </c>
       <c r="M67" t="n">
-        <v>5281.59144999372</v>
+        <v>5269.235376659202</v>
       </c>
       <c r="N67" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O67" t="n">
-        <v>792513.2298248101</v>
+        <v>622112.2449860655</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -6138,31 +6138,31 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H68" t="n">
-        <v>11088.36</v>
+        <v>5501.900000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>18454.041390104</v>
+        <v>4548.233951112548</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9607305175731793</v>
+        <v>0.9580146809835386</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9757305175731793</v>
+        <v>0.9730146809835386</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9757305175731793</v>
+        <v>0.9730146809835386</v>
       </c>
       <c r="M68" t="n">
-        <v>5278.331322474222</v>
+        <v>5263.63967854217</v>
       </c>
       <c r="N68" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O68" t="n">
-        <v>696954.9029828842</v>
+        <v>552975.9403980721</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -6222,31 +6222,31 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H69" t="n">
-        <v>11251.55</v>
+        <v>5640.420000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>19001.69111935999</v>
+        <v>4780.512620004388</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9601520054694621</v>
+        <v>0.9569555091919998</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9751520054694621</v>
+        <v>0.9719555091919998</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9751520054694621</v>
+        <v>0.9719555091919998</v>
       </c>
       <c r="M69" t="n">
-        <v>5275.201791827712</v>
+        <v>5257.909961635226</v>
       </c>
       <c r="N69" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O69" t="n">
-        <v>707086.7186582296</v>
+        <v>552907.4335913222</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -6306,31 +6306,31 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H70" t="n">
-        <v>11417.63</v>
+        <v>5751.060000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>19567.26156709483</v>
+        <v>4970.196565818908</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9595632482528106</v>
+        <v>0.9561095175155931</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9745632482528106</v>
+        <v>0.9711095175155932</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9745632482528106</v>
+        <v>0.9711095175155932</v>
       </c>
       <c r="M70" t="n">
-        <v>5272.016839013369</v>
+        <v>5253.333468142703</v>
       </c>
       <c r="N70" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O70" t="n">
-        <v>738305.3041588757</v>
+        <v>499284.0629144516</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6390,31 +6390,31 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H71" t="n">
-        <v>11563.93</v>
+        <v>5830.690000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>20072.34439066969</v>
+        <v>5109.000467671646</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9590446115668996</v>
+        <v>0.9555006390160246</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9740446115668996</v>
+        <v>0.9705006390160246</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9740446115668996</v>
+        <v>0.9705006390160246</v>
       </c>
       <c r="M71" t="n">
-        <v>5269.211211624532</v>
+        <v>5250.039666833867</v>
       </c>
       <c r="N71" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>669367.9812155067</v>
+        <v>399653.3477858584</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -6474,31 +6474,31 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H72" t="n">
-        <v>11719.76</v>
+        <v>5876.750000000002</v>
       </c>
       <c r="I72" t="n">
-        <v>20617.40719948793</v>
+        <v>5190.160963564108</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9584921908234578</v>
+        <v>0.9551484483380122</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9734921908234578</v>
+        <v>0.9701484483380122</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9734921908234578</v>
+        <v>0.9701484483380122</v>
       </c>
       <c r="M72" t="n">
-        <v>5266.222825322394</v>
+        <v>5248.134449098277</v>
       </c>
       <c r="N72" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O72" t="n">
-        <v>779622.1187340724</v>
+        <v>246707.0917244054</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6558,31 +6558,31 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H73" t="n">
-        <v>11863.21</v>
+        <v>5897.980000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>21125.62217065951</v>
+        <v>5227.784880366424</v>
       </c>
       <c r="J73" t="n">
-        <v>0.95798365744961</v>
+        <v>0.9549861164210733</v>
       </c>
       <c r="K73" t="n">
-        <v>0.97298365744961</v>
+        <v>0.9699861164210734</v>
       </c>
       <c r="L73" t="n">
-        <v>0.97298365744961</v>
+        <v>0.9699861164210734</v>
       </c>
       <c r="M73" t="n">
-        <v>5263.471853012559</v>
+        <v>5247.256295113767</v>
       </c>
       <c r="N73" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>800256.7955534564</v>
+        <v>36733.86760474215</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6642,31 +6642,31 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H74" t="n">
-        <v>12007.41</v>
+        <v>5909.810000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>21642.7308173999</v>
+        <v>5248.809032127258</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9574724653094296</v>
+        <v>0.9548956601527084</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9724724653094297</v>
+        <v>0.9698956601527084</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9724724653094297</v>
+        <v>0.9698956601527084</v>
       </c>
       <c r="M74" t="n">
-        <v>5260.706497787197</v>
+        <v>5246.766961075295</v>
       </c>
       <c r="N74" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O74" t="n">
-        <v>857720.5355901802</v>
+        <v>26235.05814047265</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6726,31 +6726,31 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H75" t="n">
-        <v>12153.76</v>
+        <v>5926.090000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>22173.94284818398</v>
+        <v>5277.810671694329</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9569536513724297</v>
+        <v>0.9547711776464548</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9719536513724297</v>
+        <v>0.9697711776464548</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9719536513724297</v>
+        <v>0.9697711776464548</v>
       </c>
       <c r="M75" t="n">
-        <v>5257.899911537324</v>
+        <v>5246.093558019815</v>
       </c>
       <c r="N75" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O75" t="n">
-        <v>862525.7255646107</v>
+        <v>31478.58155728533</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -6810,31 +6810,31 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H76" t="n">
-        <v>12310.89</v>
+        <v>5960.020000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>22751.45322194702</v>
+        <v>5338.511352938064</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9563966221006786</v>
+        <v>0.9545117371404852</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9713966221006786</v>
+        <v>0.9695117371404852</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9713966221006786</v>
+        <v>0.9695117371404852</v>
       </c>
       <c r="M76" t="n">
-        <v>5254.886594848273</v>
+        <v>5244.690083469912</v>
       </c>
       <c r="N76" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>825253.7407512694</v>
+        <v>57699.3100281935</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6894,31 +6894,31 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>12504.82</v>
+        <v>6030.980000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>23474.45338600793</v>
+        <v>5466.580747647099</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9557091360275498</v>
+        <v>0.9539691524572078</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9707091360275498</v>
+        <v>0.9689691524572078</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9707091360275498</v>
+        <v>0.9689691524572078</v>
       </c>
       <c r="M77" t="n">
-        <v>5251.167556437354</v>
+        <v>5241.754906515561</v>
       </c>
       <c r="N77" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O77" t="n">
-        <v>919279.7382374922</v>
+        <v>398484.909619448</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6978,31 +6978,31 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H78" t="n">
-        <v>12702.1</v>
+        <v>6141.760000000001</v>
       </c>
       <c r="I78" t="n">
-        <v>24221.54689922259</v>
+        <v>5669.553087914516</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9550097741314696</v>
+        <v>0.9531220902924181</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9700097741314696</v>
+        <v>0.9681220902924181</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9700097741314696</v>
+        <v>0.9681220902924181</v>
       </c>
       <c r="M78" t="n">
-        <v>5247.384274337081</v>
+        <v>5237.172622087671</v>
       </c>
       <c r="N78" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O78" t="n">
-        <v>829385.5946311804</v>
+        <v>508227.9851372567</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -7062,31 +7062,31 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H79" t="n">
-        <v>12892.96</v>
+        <v>6282.090000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>24955.46638442999</v>
+        <v>5931.979949090245</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9543331712751949</v>
+        <v>0.952049078615356</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9693331712751949</v>
+        <v>0.9670490786153561</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9693331712751949</v>
+        <v>0.9670490786153561</v>
       </c>
       <c r="M79" t="n">
-        <v>5243.72410999372</v>
+        <v>5231.368036659203</v>
       </c>
       <c r="N79" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O79" t="n">
-        <v>786833.12882481</v>
+        <v>617643.8988660655</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -7146,31 +7146,31 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H80" t="n">
-        <v>13062.96</v>
+        <v>6417.370000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>25618.39598490401</v>
+        <v>6190.58414614755</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9537305175731793</v>
+        <v>0.9510146809835386</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9687305175731793</v>
+        <v>0.9660146809835386</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9687305175731793</v>
+        <v>0.9660146809835386</v>
       </c>
       <c r="M80" t="n">
-        <v>5240.463982474222</v>
+        <v>5225.77233854217</v>
       </c>
       <c r="N80" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O80" t="n">
-        <v>691956.4141028842</v>
+        <v>548999.8696980721</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -7230,31 +7230,31 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H81" t="n">
-        <v>13226.15000000001</v>
+        <v>6555.890000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>26262.94467236</v>
+        <v>6461.100014359388</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9531520054694621</v>
+        <v>0.9499555091919998</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9681520054694621</v>
+        <v>0.9649555091919998</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9681520054694621</v>
+        <v>0.9649555091919998</v>
       </c>
       <c r="M81" t="n">
-        <v>5237.334451827712</v>
+        <v>5220.042621635226</v>
       </c>
       <c r="N81" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O81" t="n">
-        <v>702012.4950982296</v>
+        <v>548927.576157322</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -7314,31 +7314,31 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H82" t="n">
-        <v>13392.23000000001</v>
+        <v>6666.530000000002</v>
       </c>
       <c r="I82" t="n">
-        <v>26927.13010249484</v>
+        <v>6681.325136413909</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9525632482528106</v>
+        <v>0.9491095175155931</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9675632482528106</v>
+        <v>0.9641095175155932</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9675632482528106</v>
+        <v>0.9641095175155932</v>
       </c>
       <c r="M82" t="n">
-        <v>5234.149499013369</v>
+        <v>5215.466128142702</v>
       </c>
       <c r="N82" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O82" t="n">
-        <v>733003.8765588757</v>
+        <v>495686.6656144516</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -7398,31 +7398,31 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H83" t="n">
-        <v>13538.53</v>
+        <v>6746.160000000002</v>
       </c>
       <c r="I83" t="n">
-        <v>27519.0829400697</v>
+        <v>6842.110183096646</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9520446115668996</v>
+        <v>0.9485006390160245</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9670446115668996</v>
+        <v>0.9635006390160246</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9670446115668996</v>
+        <v>0.9635006390160246</v>
       </c>
       <c r="M83" t="n">
-        <v>5231.343871624531</v>
+        <v>5212.172326833866</v>
       </c>
       <c r="N83" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O83" t="n">
-        <v>664558.8290355066</v>
+        <v>396771.6432118584</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -7482,31 +7482,31 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H84" t="n">
-        <v>13694.36</v>
+        <v>6792.220000000002</v>
       </c>
       <c r="I84" t="n">
-        <v>28156.67448628795</v>
+        <v>6935.985127449108</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9514921908234578</v>
+        <v>0.9481484483380122</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9664921908234578</v>
+        <v>0.9631484483380122</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9664921908234578</v>
+        <v>0.9631484483380122</v>
       </c>
       <c r="M84" t="n">
-        <v>5228.355485322394</v>
+        <v>5210.267109098278</v>
       </c>
       <c r="N84" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O84" t="n">
-        <v>774017.7524140724</v>
+        <v>244927.3267444054</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -7566,31 +7566,31 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H85" t="n">
-        <v>13837.81</v>
+        <v>6813.450000000002</v>
       </c>
       <c r="I85" t="n">
-        <v>28750.06719845952</v>
+        <v>6979.469394681425</v>
       </c>
       <c r="J85" t="n">
-        <v>0.95098365744961</v>
+        <v>0.9479861164210733</v>
       </c>
       <c r="K85" t="n">
-        <v>0.96598365744961</v>
+        <v>0.9629861164210733</v>
       </c>
       <c r="L85" t="n">
-        <v>0.96598365744961</v>
+        <v>0.9629861164210733</v>
       </c>
       <c r="M85" t="n">
-        <v>5225.604513012559</v>
+        <v>5209.388955113766</v>
       </c>
       <c r="N85" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O85" t="n">
-        <v>794500.9598734565</v>
+        <v>36468.79622474215</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -7650,31 +7650,31 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H86" t="n">
-        <v>13982.01000000001</v>
+        <v>6825.280000000002</v>
       </c>
       <c r="I86" t="n">
-        <v>29352.7989211999</v>
+        <v>7003.75911147226</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9504724653094296</v>
+        <v>0.9478956601527084</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9654724653094297</v>
+        <v>0.9628956601527084</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9654724653094297</v>
+        <v>0.9628956601527084</v>
       </c>
       <c r="M86" t="n">
-        <v>5222.839157787197</v>
+        <v>5208.899621075295</v>
       </c>
       <c r="N86" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O86" t="n">
-        <v>851548.1591701801</v>
+        <v>26045.72144047265</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7734,31 +7734,31 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H87" t="n">
-        <v>14128.36000000001</v>
+        <v>6841.560000000001</v>
       </c>
       <c r="I87" t="n">
-        <v>29970.91065498399</v>
+        <v>7037.254698519329</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9499536513724297</v>
+        <v>0.9477711776464548</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9649536513724297</v>
+        <v>0.9627711776464548</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9649536513724297</v>
+        <v>0.9627711776464548</v>
       </c>
       <c r="M87" t="n">
-        <v>5220.032571537323</v>
+        <v>5208.226218019815</v>
       </c>
       <c r="N87" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O87" t="n">
-        <v>856315.4818046107</v>
+        <v>31251.37751728533</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -7818,31 +7818,31 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H88" t="n">
-        <v>14285.49000000001</v>
+        <v>6875.490000000002</v>
       </c>
       <c r="I88" t="n">
-        <v>30641.72168014703</v>
+        <v>7107.321450893066</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9493966221006785</v>
+        <v>0.9475117371404852</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9643966221006786</v>
+        <v>0.9625117371404852</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9643966221006786</v>
+        <v>0.9625117371404852</v>
       </c>
       <c r="M88" t="n">
-        <v>5217.019254848273</v>
+        <v>5206.822743469911</v>
       </c>
       <c r="N88" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>819308.5683712693</v>
+        <v>57282.7692881935</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7902,31 +7902,31 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>14479.42000000001</v>
+        <v>6946.450000000002</v>
       </c>
       <c r="I89" t="n">
-        <v>31479.87359960794</v>
+        <v>7254.978714962101</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9487091360275498</v>
+        <v>0.9469691524572078</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9637091360275498</v>
+        <v>0.9619691524572078</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9637091360275498</v>
+        <v>0.9619691524572078</v>
       </c>
       <c r="M89" t="n">
-        <v>5213.300216437354</v>
+        <v>5203.88756651556</v>
       </c>
       <c r="N89" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O89" t="n">
-        <v>912652.9537374924</v>
+        <v>395606.9917794479</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -7986,31 +7986,31 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H90" t="n">
-        <v>14676.70000000001</v>
+        <v>7057.230000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>32344.10803122261</v>
+        <v>7488.530877209518</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9480097741314696</v>
+        <v>0.9461220902924181</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9630097741314696</v>
+        <v>0.9611220902924181</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9630097741314696</v>
+        <v>0.9611220902924181</v>
       </c>
       <c r="M90" t="n">
-        <v>5209.516934337081</v>
+        <v>5199.305282087671</v>
       </c>
       <c r="N90" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O90" t="n">
-        <v>823402.5549111803</v>
+        <v>504554.8531572567</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -8070,31 +8070,31 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H91" t="n">
-        <v>14867.56000000001</v>
+        <v>7197.560000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>33191.35636723001</v>
+        <v>7789.694571915247</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9473331712751949</v>
+        <v>0.945049078615356</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9623331712751949</v>
+        <v>0.960049078615356</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9623331712751949</v>
+        <v>0.960049078615356</v>
       </c>
       <c r="M91" t="n">
-        <v>5205.856769993719</v>
+        <v>5193.500696659202</v>
       </c>
       <c r="N91" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O91" t="n">
-        <v>781153.0278248099</v>
+        <v>613175.5527460655</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -8154,31 +8154,31 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H92" t="n">
-        <v>15037.56000000001</v>
+        <v>7332.840000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>33955.22856770402</v>
+        <v>8085.641595452549</v>
       </c>
       <c r="J92" t="n">
-        <v>0.9467305175731793</v>
+        <v>0.9440146809835386</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9617305175731793</v>
+        <v>0.9590146809835386</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9617305175731793</v>
+        <v>0.9590146809835386</v>
       </c>
       <c r="M92" t="n">
-        <v>5202.596642474222</v>
+        <v>5187.90499854217</v>
       </c>
       <c r="N92" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O92" t="n">
-        <v>686957.9252228842</v>
+        <v>545023.7989980719</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -8238,31 +8238,31 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H93" t="n">
-        <v>15200.75000000001</v>
+        <v>7471.360000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>34696.67621336002</v>
+        <v>8394.394662984389</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9461520054694621</v>
+        <v>0.9429555091919998</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9611520054694621</v>
+        <v>0.9579555091919998</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9611520054694621</v>
+        <v>0.9579555091919998</v>
       </c>
       <c r="M93" t="n">
-        <v>5199.467111827712</v>
+        <v>5182.175281635225</v>
       </c>
       <c r="N93" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O93" t="n">
-        <v>696938.2715382295</v>
+        <v>544947.7187233221</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -8322,31 +8322,31 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H94" t="n">
-        <v>15366.83000000001</v>
+        <v>7582.000000000002</v>
       </c>
       <c r="I94" t="n">
-        <v>35459.47662589486</v>
+        <v>8645.160961278911</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9455632482528106</v>
+        <v>0.9421095175155931</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9605632482528106</v>
+        <v>0.9571095175155931</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9605632482528106</v>
+        <v>0.9571095175155931</v>
       </c>
       <c r="M94" t="n">
-        <v>5196.282159013369</v>
+        <v>5177.598788142703</v>
       </c>
       <c r="N94" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O94" t="n">
-        <v>727702.4489588756</v>
+        <v>492089.2683144516</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -8406,31 +8406,31 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H95" t="n">
-        <v>15513.13000000001</v>
+        <v>7661.630000000002</v>
       </c>
       <c r="I95" t="n">
-        <v>36138.29947746971</v>
+        <v>8827.927152791648</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9450446115668996</v>
+        <v>0.9415006390160245</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9600446115668996</v>
+        <v>0.9565006390160246</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9600446115668996</v>
+        <v>0.9565006390160246</v>
       </c>
       <c r="M95" t="n">
-        <v>5193.476531624531</v>
+        <v>5174.304986833867</v>
       </c>
       <c r="N95" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O95" t="n">
-        <v>659749.6768555066</v>
+        <v>393889.9386378585</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -8490,31 +8490,31 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H96" t="n">
-        <v>15668.96000000001</v>
+        <v>7707.690000000002</v>
       </c>
       <c r="I96" t="n">
-        <v>36868.41976108796</v>
+        <v>8934.51654560411</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9444921908234578</v>
+        <v>0.9411484483380121</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9594921908234578</v>
+        <v>0.9561484483380122</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9594921908234578</v>
+        <v>0.9561484483380122</v>
       </c>
       <c r="M96" t="n">
-        <v>5190.488145322393</v>
+        <v>5172.399769098277</v>
       </c>
       <c r="N96" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O96" t="n">
-        <v>768413.3860940725</v>
+        <v>243147.5617644054</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -8574,31 +8574,31 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H97" t="n">
-        <v>15812.41000000001</v>
+        <v>7728.920000000002</v>
       </c>
       <c r="I97" t="n">
-        <v>37546.99021425954</v>
+        <v>8983.861163266423</v>
       </c>
       <c r="J97" t="n">
-        <v>0.94398365744961</v>
+        <v>0.9409861164210733</v>
       </c>
       <c r="K97" t="n">
-        <v>0.95898365744961</v>
+        <v>0.9559861164210733</v>
       </c>
       <c r="L97" t="n">
-        <v>0.95898365744961</v>
+        <v>0.9559861164210733</v>
       </c>
       <c r="M97" t="n">
-        <v>5187.737173012559</v>
+        <v>5171.521615113767</v>
       </c>
       <c r="N97" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O97" t="n">
-        <v>788745.1241934565</v>
+        <v>36203.72484474216</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -8658,31 +8658,31 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H98" t="n">
-        <v>15956.61000000001</v>
+        <v>7740.750000000002</v>
       </c>
       <c r="I98" t="n">
-        <v>38235.34501299992</v>
+        <v>9011.416445087261</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9434724653094296</v>
+        <v>0.9408956601527084</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9584724653094296</v>
+        <v>0.9558956601527084</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9584724653094296</v>
+        <v>0.9558956601527084</v>
       </c>
       <c r="M98" t="n">
-        <v>5184.971817787196</v>
+        <v>5171.032281075294</v>
       </c>
       <c r="N98" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O98" t="n">
-        <v>845375.78275018</v>
+        <v>25856.38474047265</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -8742,31 +8742,31 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H99" t="n">
-        <v>16102.96000000001</v>
+        <v>7757.030000000002</v>
       </c>
       <c r="I99" t="n">
-        <v>38940.35644978401</v>
+        <v>9049.40597961433</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9429536513724297</v>
+        <v>0.9407711776464549</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9579536513724297</v>
+        <v>0.9557711776464549</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9579536513724297</v>
+        <v>0.9557711776464549</v>
       </c>
       <c r="M99" t="n">
-        <v>5182.165231537323</v>
+        <v>5170.358878019815</v>
       </c>
       <c r="N99" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O99" t="n">
-        <v>850105.2380446106</v>
+        <v>31024.17347728533</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -8826,31 +8826,31 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H100" t="n">
-        <v>16260.09000000001</v>
+        <v>7790.960000000002</v>
       </c>
       <c r="I100" t="n">
-        <v>39704.46812634705</v>
+        <v>9128.838803118066</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9423966221006785</v>
+        <v>0.9405117371404852</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9573966221006786</v>
+        <v>0.9555117371404852</v>
       </c>
       <c r="L100" t="n">
-        <v>0.9573966221006786</v>
+        <v>0.9555117371404852</v>
       </c>
       <c r="M100" t="n">
-        <v>5179.151914848273</v>
+        <v>5168.955403469911</v>
       </c>
       <c r="N100" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O100" t="n">
-        <v>813363.3959912693</v>
+        <v>56866.22854819349</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -8910,31 +8910,31 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>16454.02000000001</v>
+        <v>7861.920000000002</v>
       </c>
       <c r="I101" t="n">
-        <v>40657.77180120796</v>
+        <v>9296.0839365471</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9417091360275498</v>
+        <v>0.9399691524572078</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9567091360275498</v>
+        <v>0.9549691524572078</v>
       </c>
       <c r="L101" t="n">
-        <v>0.9567091360275498</v>
+        <v>0.9549691524572078</v>
       </c>
       <c r="M101" t="n">
-        <v>5175.432876437354</v>
+        <v>5166.02022651556</v>
       </c>
       <c r="N101" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O101" t="n">
-        <v>906026.1692374923</v>
+        <v>392729.0739394479</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -8994,31 +8994,31 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H102" t="n">
-        <v>16651.30000000001</v>
+        <v>7972.700000000002</v>
       </c>
       <c r="I102" t="n">
-        <v>41639.14715122261</v>
+        <v>9560.215920774517</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9410097741314696</v>
+        <v>0.9391220902924181</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9560097741314696</v>
+        <v>0.9541220902924181</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9560097741314696</v>
+        <v>0.9541220902924181</v>
       </c>
       <c r="M102" t="n">
-        <v>5171.64959433708</v>
+        <v>5161.437942087671</v>
       </c>
       <c r="N102" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O102" t="n">
-        <v>817419.5151911803</v>
+        <v>500881.7211772568</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -9078,31 +9078,31 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H103" t="n">
-        <v>16842.16000000001</v>
+        <v>8113.030000000002</v>
       </c>
       <c r="I103" t="n">
-        <v>42599.72433803001</v>
+        <v>9900.116449010247</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9403331712751949</v>
+        <v>0.938049078615356</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9553331712751949</v>
+        <v>0.953049078615356</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9553331712751949</v>
+        <v>0.953049078615356</v>
       </c>
       <c r="M103" t="n">
-        <v>5167.98942999372</v>
+        <v>5155.633356659202</v>
       </c>
       <c r="N103" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O103" t="n">
-        <v>775472.92682481</v>
+        <v>608707.2066260654</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -9162,31 +9162,31 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H104" t="n">
-        <v>17012.16000000001</v>
+        <v>8248.310000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>43464.53913850402</v>
+        <v>10233.40629902755</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9397305175731793</v>
+        <v>0.9370146809835386</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9547305175731793</v>
+        <v>0.9520146809835386</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9547305175731793</v>
+        <v>0.9520146809835386</v>
       </c>
       <c r="M104" t="n">
-        <v>5164.729302474222</v>
+        <v>5150.03765854217</v>
       </c>
       <c r="N104" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O104" t="n">
-        <v>681959.4363428842</v>
+        <v>541047.7282980721</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -9246,31 +9246,31 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H105" t="n">
-        <v>17175.35000000001</v>
+        <v>8386.830000000002</v>
       </c>
       <c r="I105" t="n">
-        <v>44302.88574236001</v>
+        <v>10580.39656587939</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9391520054694621</v>
+        <v>0.9359555091919998</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9541520054694621</v>
+        <v>0.9509555091919998</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9541520054694621</v>
+        <v>0.9509555091919998</v>
       </c>
       <c r="M105" t="n">
-        <v>5161.599771827711</v>
+        <v>5144.307941635226</v>
       </c>
       <c r="N105" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O105" t="n">
-        <v>691864.0479782296</v>
+        <v>540967.8612893221</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -9330,31 +9330,31 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H106" t="n">
-        <v>17341.43000000001</v>
+        <v>8497.470000000001</v>
       </c>
       <c r="I106" t="n">
-        <v>45164.30113729486</v>
+        <v>10861.70404041391</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9385632482528106</v>
+        <v>0.9351095175155931</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9535632482528106</v>
+        <v>0.9501095175155931</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9535632482528106</v>
+        <v>0.9501095175155931</v>
       </c>
       <c r="M106" t="n">
-        <v>5158.414819013369</v>
+        <v>5139.731448142703</v>
       </c>
       <c r="N106" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O106" t="n">
-        <v>722401.0213588757</v>
+        <v>488491.8710144516</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -9414,31 +9414,31 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H107" t="n">
-        <v>17487.73000000001</v>
+        <v>8577.1</v>
       </c>
       <c r="I107" t="n">
-        <v>45929.99400286972</v>
+        <v>11066.45137675664</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9380446115668996</v>
+        <v>0.9345006390160246</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9530446115668996</v>
+        <v>0.9495006390160247</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9530446115668996</v>
+        <v>0.9495006390160247</v>
       </c>
       <c r="M107" t="n">
-        <v>5155.609191624531</v>
+        <v>5136.437646833867</v>
       </c>
       <c r="N107" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O107" t="n">
-        <v>654940.5246755066</v>
+        <v>391008.2340638584</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -9498,31 +9498,31 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H108" t="n">
-        <v>17643.56000000001</v>
+        <v>8623.16</v>
       </c>
       <c r="I108" t="n">
-        <v>46752.64302388798</v>
+        <v>11185.75521802911</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9374921908234578</v>
+        <v>0.9341484483380122</v>
       </c>
       <c r="K108" t="n">
-        <v>0.9524921908234578</v>
+        <v>0.9491484483380123</v>
       </c>
       <c r="L108" t="n">
-        <v>0.9524921908234578</v>
+        <v>0.9491484483380123</v>
       </c>
       <c r="M108" t="n">
-        <v>5152.620805322394</v>
+        <v>5134.532429098278</v>
       </c>
       <c r="N108" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O108" t="n">
-        <v>762809.0197740723</v>
+        <v>241367.7967844054</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -9582,31 +9582,31 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H109" t="n">
-        <v>17787.01000000001</v>
+        <v>8644.389999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>47516.39121805955</v>
+        <v>11240.96018612142</v>
       </c>
       <c r="J109" t="n">
-        <v>0.93698365744961</v>
+        <v>0.9339861164210734</v>
       </c>
       <c r="K109" t="n">
-        <v>0.95198365744961</v>
+        <v>0.9489861164210734</v>
       </c>
       <c r="L109" t="n">
-        <v>0.95198365744961</v>
+        <v>0.9489861164210734</v>
       </c>
       <c r="M109" t="n">
-        <v>5149.869833012559</v>
+        <v>5133.654275113768</v>
       </c>
       <c r="N109" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O109" t="n">
-        <v>782989.2885134564</v>
+        <v>35938.65346474216</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -9666,31 +9666,31 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H110" t="n">
-        <v>17931.21000000001</v>
+        <v>8656.219999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>48290.36909279994</v>
+        <v>11271.78103297225</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9364724653094296</v>
+        <v>0.9338956601527085</v>
       </c>
       <c r="K110" t="n">
-        <v>0.9514724653094296</v>
+        <v>0.9488956601527085</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9514724653094296</v>
+        <v>0.9488956601527085</v>
       </c>
       <c r="M110" t="n">
-        <v>5147.104477787197</v>
+        <v>5133.164941075295</v>
       </c>
       <c r="N110" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O110" t="n">
-        <v>839203.4063301801</v>
+        <v>25667.04804047265</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -9750,31 +9750,31 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H111" t="n">
-        <v>18077.56000000001</v>
+        <v>8672.5</v>
       </c>
       <c r="I111" t="n">
-        <v>49082.28023258402</v>
+        <v>11314.26451497933</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9359536513724298</v>
+        <v>0.9337711776464549</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9509536513724298</v>
+        <v>0.9487711776464549</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9509536513724298</v>
+        <v>0.9487711776464549</v>
       </c>
       <c r="M111" t="n">
-        <v>5144.297891537323</v>
+        <v>5132.491538019815</v>
       </c>
       <c r="N111" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O111" t="n">
-        <v>843894.9942846106</v>
+        <v>30796.96943728533</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -9834,31 +9834,31 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H112" t="n">
-        <v>18234.69000000001</v>
+        <v>8706.43</v>
       </c>
       <c r="I112" t="n">
-        <v>49939.69256054707</v>
+        <v>11403.06340961306</v>
       </c>
       <c r="J112" t="n">
-        <v>0.9353966221006785</v>
+        <v>0.9335117371404853</v>
       </c>
       <c r="K112" t="n">
-        <v>0.9503966221006785</v>
+        <v>0.9485117371404853</v>
       </c>
       <c r="L112" t="n">
-        <v>0.9503966221006785</v>
+        <v>0.9485117371404853</v>
       </c>
       <c r="M112" t="n">
-        <v>5141.284574848272</v>
+        <v>5131.088063469912</v>
       </c>
       <c r="N112" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O112" t="n">
-        <v>807418.2236112694</v>
+        <v>56449.6878081935</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -9918,31 +9918,31 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>18428.62000000001</v>
+        <v>8777.389999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>51008.14799080797</v>
+        <v>11589.89641240209</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9347091360275498</v>
+        <v>0.9329691524572078</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9497091360275498</v>
+        <v>0.9479691524572078</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9497091360275498</v>
+        <v>0.9479691524572078</v>
       </c>
       <c r="M113" t="n">
-        <v>5137.565536437354</v>
+        <v>5128.152886515561</v>
       </c>
       <c r="N113" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O113" t="n">
-        <v>899399.3847374923</v>
+        <v>389851.156099448</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -10002,31 +10002,31 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H114" t="n">
-        <v>18625.90000000001</v>
+        <v>8888.17</v>
       </c>
       <c r="I114" t="n">
-        <v>52106.66425922263</v>
+        <v>11884.60821860952</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9340097741314696</v>
+        <v>0.9321220902924181</v>
       </c>
       <c r="K114" t="n">
-        <v>0.9490097741314696</v>
+        <v>0.9471220902924181</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9490097741314696</v>
+        <v>0.9471220902924181</v>
       </c>
       <c r="M114" t="n">
-        <v>5133.78225433708</v>
+        <v>5123.570602087671</v>
       </c>
       <c r="N114" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O114" t="n">
-        <v>811436.4754711803</v>
+        <v>497208.5891972567</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -10086,31 +10086,31 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H115" t="n">
-        <v>18816.76000000001</v>
+        <v>9028.5</v>
       </c>
       <c r="I115" t="n">
-        <v>53180.57029683002</v>
+        <v>12263.24558037524</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9333331712751949</v>
+        <v>0.9310490786153561</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9483331712751949</v>
+        <v>0.9460490786153561</v>
       </c>
       <c r="L115" t="n">
-        <v>0.9483331712751949</v>
+        <v>0.9460490786153561</v>
       </c>
       <c r="M115" t="n">
-        <v>5130.12208999372</v>
+        <v>5117.766016659203</v>
       </c>
       <c r="N115" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O115" t="n">
-        <v>769792.82582481</v>
+        <v>604238.8605060657</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -10170,31 +10170,31 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H116" t="n">
-        <v>18986.76000000001</v>
+        <v>9163.780000000001</v>
       </c>
       <c r="I116" t="n">
-        <v>54146.32769730405</v>
+        <v>12633.87825687255</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9327305175731793</v>
+        <v>0.9300146809835386</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9477305175731793</v>
+        <v>0.9450146809835386</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9477305175731793</v>
+        <v>0.9450146809835386</v>
       </c>
       <c r="M116" t="n">
-        <v>5126.861962474222</v>
+        <v>5112.17031854217</v>
       </c>
       <c r="N116" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O116" t="n">
-        <v>676960.9474628841</v>
+        <v>537071.6575980721</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -10254,31 +10254,31 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H117" t="n">
-        <v>19149.95000000001</v>
+        <v>9302.300000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>55081.57325936003</v>
+        <v>13019.10572304439</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9321520054694621</v>
+        <v>0.9289555091919998</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9471520054694621</v>
+        <v>0.9439555091919998</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9471520054694621</v>
+        <v>0.9439555091919998</v>
       </c>
       <c r="M117" t="n">
-        <v>5123.732431827711</v>
+        <v>5106.440601635226</v>
       </c>
       <c r="N117" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O117" t="n">
-        <v>686789.8244182295</v>
+        <v>536988.0038553221</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -10338,31 +10338,31 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H118" t="n">
-        <v>19316.03000000001</v>
+        <v>9412.940000000001</v>
       </c>
       <c r="I118" t="n">
-        <v>56041.60363669488</v>
+        <v>13330.95437381891</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9315632482528106</v>
+        <v>0.9281095175155931</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9465632482528106</v>
+        <v>0.9431095175155931</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9465632482528106</v>
+        <v>0.9431095175155931</v>
       </c>
       <c r="M118" t="n">
-        <v>5120.547479013369</v>
+        <v>5101.864108142703</v>
       </c>
       <c r="N118" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O118" t="n">
-        <v>717099.5937588756</v>
+        <v>484894.4737144517</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -10422,31 +10422,31 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H119" t="n">
-        <v>19462.33000000001</v>
+        <v>9492.57</v>
       </c>
       <c r="I119" t="n">
-        <v>56894.16651626973</v>
+        <v>13557.68285499164</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9310446115668995</v>
+        <v>0.9275006390160246</v>
       </c>
       <c r="K119" t="n">
-        <v>0.9460446115668996</v>
+        <v>0.9425006390160247</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9460446115668996</v>
+        <v>0.9425006390160247</v>
       </c>
       <c r="M119" t="n">
-        <v>5117.741851624531</v>
+        <v>5098.570306833867</v>
       </c>
       <c r="N119" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O119" t="n">
-        <v>650131.3724955067</v>
+        <v>388126.5294898585</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -10506,31 +10506,31 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H120" t="n">
-        <v>19618.16000000001</v>
+        <v>9538.629999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>57809.344274688</v>
+        <v>13689.7011447241</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9304921908234578</v>
+        <v>0.9271484483380122</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9454921908234578</v>
+        <v>0.9421484483380123</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9454921908234578</v>
+        <v>0.9421484483380123</v>
       </c>
       <c r="M120" t="n">
-        <v>5114.753465322394</v>
+        <v>5096.665089098277</v>
       </c>
       <c r="N120" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O120" t="n">
-        <v>757204.6534540724</v>
+        <v>239588.0318044054</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -10590,31 +10590,31 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H121" t="n">
-        <v>19761.61000000001</v>
+        <v>9559.859999999999</v>
       </c>
       <c r="I121" t="n">
-        <v>58658.27020985958</v>
+        <v>13750.76646324642</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9299836574496099</v>
+        <v>0.9269861164210734</v>
       </c>
       <c r="K121" t="n">
-        <v>0.9449836574496099</v>
+        <v>0.9419861164210734</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9449836574496099</v>
+        <v>0.9419861164210734</v>
       </c>
       <c r="M121" t="n">
-        <v>5112.002493012558</v>
+        <v>5095.786935113767</v>
       </c>
       <c r="N121" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O121" t="n">
-        <v>777233.4528334563</v>
+        <v>35673.58208474216</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -10674,31 +10674,31 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H122" t="n">
-        <v>19905.81000000001</v>
+        <v>9571.689999999999</v>
       </c>
       <c r="I122" t="n">
-        <v>59517.87116059996</v>
+        <v>13784.85287512725</v>
       </c>
       <c r="J122" t="n">
-        <v>0.9294724653094296</v>
+        <v>0.9268956601527085</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9444724653094296</v>
+        <v>0.9418956601527085</v>
       </c>
       <c r="L122" t="n">
-        <v>0.9444724653094296</v>
+        <v>0.9418956601527085</v>
       </c>
       <c r="M122" t="n">
-        <v>5109.237137787197</v>
+        <v>5095.297601075295</v>
       </c>
       <c r="N122" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O122" t="n">
-        <v>833031.02991018</v>
+        <v>25477.71134047266</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -10758,31 +10758,31 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H123" t="n">
-        <v>20052.16000000001</v>
+        <v>9587.969999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>60396.68200338403</v>
+        <v>13831.83030461432</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9289536513724297</v>
+        <v>0.9267711776464549</v>
       </c>
       <c r="K123" t="n">
-        <v>0.9439536513724297</v>
+        <v>0.9417711776464549</v>
       </c>
       <c r="L123" t="n">
-        <v>0.9439536513724297</v>
+        <v>0.9417711776464549</v>
       </c>
       <c r="M123" t="n">
-        <v>5106.430551537323</v>
+        <v>5094.624198019816</v>
       </c>
       <c r="N123" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O123" t="n">
-        <v>837684.7505246106</v>
+        <v>30569.76539728533</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -10842,31 +10842,31 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H124" t="n">
-        <v>20209.29000000001</v>
+        <v>9621.9</v>
       </c>
       <c r="I124" t="n">
-        <v>61347.39498274708</v>
+        <v>13929.99527037806</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9283966221006785</v>
+        <v>0.9265117371404853</v>
       </c>
       <c r="K124" t="n">
-        <v>0.9433966221006785</v>
+        <v>0.9415117371404853</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9433966221006785</v>
+        <v>0.9415117371404853</v>
       </c>
       <c r="M124" t="n">
-        <v>5103.417234848273</v>
+        <v>5093.220723469912</v>
       </c>
       <c r="N124" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>801473.0512312693</v>
+        <v>56033.1470681935</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -10926,31 +10926,31 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>20403.22000000001</v>
+        <v>9692.859999999999</v>
       </c>
       <c r="I125" t="n">
-        <v>62531.00216840799</v>
+        <v>14136.41614252709</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9277091360275498</v>
+        <v>0.9259691524572078</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9427091360275498</v>
+        <v>0.9409691524572078</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9427091360275498</v>
+        <v>0.9409691524572078</v>
       </c>
       <c r="M125" t="n">
-        <v>5099.698196437354</v>
+        <v>5090.285546515561</v>
       </c>
       <c r="N125" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O125" t="n">
-        <v>892772.6002374924</v>
+        <v>386973.2382594479</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -11010,31 +11010,31 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H126" t="n">
-        <v>20600.50000000001</v>
+        <v>9803.639999999999</v>
       </c>
       <c r="I126" t="n">
-        <v>63746.65935522264</v>
+        <v>14461.70777071451</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9270097741314696</v>
+        <v>0.9251220902924182</v>
       </c>
       <c r="K126" t="n">
-        <v>0.9420097741314696</v>
+        <v>0.9401220902924182</v>
       </c>
       <c r="L126" t="n">
-        <v>0.9420097741314696</v>
+        <v>0.9401220902924182</v>
       </c>
       <c r="M126" t="n">
-        <v>5095.914914337081</v>
+        <v>5085.703262087672</v>
       </c>
       <c r="N126" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O126" t="n">
-        <v>805453.4357511802</v>
+        <v>493535.4572172568</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -11094,31 +11094,31 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H127" t="n">
-        <v>20791.36000000001</v>
+        <v>9943.969999999999</v>
       </c>
       <c r="I127" t="n">
-        <v>64933.89424363005</v>
+        <v>14879.08196601024</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9263331712751949</v>
+        <v>0.9240490786153561</v>
       </c>
       <c r="K127" t="n">
-        <v>0.9413331712751949</v>
+        <v>0.9390490786153561</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9413331712751949</v>
+        <v>0.9390490786153561</v>
       </c>
       <c r="M127" t="n">
-        <v>5092.25474999372</v>
+        <v>5079.898676659202</v>
       </c>
       <c r="N127" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O127" t="n">
-        <v>764112.7248248101</v>
+        <v>599770.5143860655</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -11178,31 +11178,31 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H128" t="n">
-        <v>20961.36000000001</v>
+        <v>10079.25</v>
       </c>
       <c r="I128" t="n">
-        <v>66000.59424410407</v>
+        <v>15287.05746898755</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9257305175731793</v>
+        <v>0.9230146809835386</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9407305175731793</v>
+        <v>0.9380146809835386</v>
       </c>
       <c r="L128" t="n">
-        <v>0.9407305175731793</v>
+        <v>0.9380146809835386</v>
       </c>
       <c r="M128" t="n">
-        <v>5088.994622474222</v>
+        <v>5074.30297854217</v>
       </c>
       <c r="N128" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O128" t="n">
-        <v>671962.458582884</v>
+        <v>533095.586898072</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -11262,31 +11262,31 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H129" t="n">
-        <v>21124.55000000001</v>
+        <v>10217.77</v>
       </c>
       <c r="I129" t="n">
-        <v>67032.73876436005</v>
+        <v>15710.52213447939</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9251520054694621</v>
+        <v>0.9219555091919998</v>
       </c>
       <c r="K129" t="n">
-        <v>0.9401520054694621</v>
+        <v>0.9369555091919998</v>
       </c>
       <c r="L129" t="n">
-        <v>0.9401520054694621</v>
+        <v>0.9369555091919998</v>
       </c>
       <c r="M129" t="n">
-        <v>5085.865091827712</v>
+        <v>5068.573261635226</v>
       </c>
       <c r="N129" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O129" t="n">
-        <v>681715.6008582294</v>
+        <v>533008.1464213221</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -11346,31 +11346,31 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H130" t="n">
-        <v>21290.63000000001</v>
+        <v>10328.41</v>
       </c>
       <c r="I130" t="n">
-        <v>68091.3841240949</v>
+        <v>16052.9119614939</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9245632482528106</v>
+        <v>0.9211095175155931</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9395632482528106</v>
+        <v>0.9361095175155931</v>
       </c>
       <c r="L130" t="n">
-        <v>0.9395632482528106</v>
+        <v>0.9361095175155931</v>
       </c>
       <c r="M130" t="n">
-        <v>5082.680139013369</v>
+        <v>5063.996768142702</v>
       </c>
       <c r="N130" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O130" t="n">
-        <v>711798.1661588757</v>
+        <v>481297.0764144516</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -11430,31 +11430,31 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H131" t="n">
-        <v>21436.93000000001</v>
+        <v>10408.04</v>
       </c>
       <c r="I131" t="n">
-        <v>69030.81701766975</v>
+        <v>16301.62158749664</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9240446115668995</v>
+        <v>0.9205006390160246</v>
       </c>
       <c r="K131" t="n">
-        <v>0.9390446115668996</v>
+        <v>0.9355006390160246</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9390446115668996</v>
+        <v>0.9355006390160246</v>
       </c>
       <c r="M131" t="n">
-        <v>5079.874511624531</v>
+        <v>5060.702966833867</v>
       </c>
       <c r="N131" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O131" t="n">
-        <v>645322.2203155067</v>
+        <v>385244.8249158585</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -11514,31 +11514,31 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H132" t="n">
-        <v>21592.76000000001</v>
+        <v>10454.1</v>
       </c>
       <c r="I132" t="n">
-        <v>70038.52351348802</v>
+        <v>16446.3543256891</v>
       </c>
       <c r="J132" t="n">
-        <v>0.9234921908234578</v>
+        <v>0.9201484483380122</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9384921908234578</v>
+        <v>0.9351484483380123</v>
       </c>
       <c r="L132" t="n">
-        <v>0.9384921908234578</v>
+        <v>0.9351484483380123</v>
       </c>
       <c r="M132" t="n">
-        <v>5076.886125322394</v>
+        <v>5058.797749098278</v>
       </c>
       <c r="N132" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O132" t="n">
-        <v>751600.2871340724</v>
+        <v>237808.2668244054</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -11598,31 +11598,31 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H133" t="n">
-        <v>21736.21000000001</v>
+        <v>10475.33</v>
       </c>
       <c r="I133" t="n">
-        <v>70972.6271896596</v>
+        <v>16513.27999464141</v>
       </c>
       <c r="J133" t="n">
-        <v>0.92298365744961</v>
+        <v>0.9199861164210734</v>
       </c>
       <c r="K133" t="n">
-        <v>0.93798365744961</v>
+        <v>0.9349861164210734</v>
       </c>
       <c r="L133" t="n">
-        <v>0.93798365744961</v>
+        <v>0.9349861164210734</v>
       </c>
       <c r="M133" t="n">
-        <v>5074.135153012559</v>
+        <v>5057.919595113767</v>
       </c>
       <c r="N133" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O133" t="n">
-        <v>771477.6171534564</v>
+        <v>35408.51070474216</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -11682,31 +11682,31 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H134" t="n">
-        <v>21880.41000000001</v>
+        <v>10487.16</v>
       </c>
       <c r="I134" t="n">
-        <v>71917.85121639998</v>
+        <v>16550.63197155225</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9224724653094296</v>
+        <v>0.9198956601527085</v>
       </c>
       <c r="K134" t="n">
-        <v>0.9374724653094296</v>
+        <v>0.9348956601527085</v>
       </c>
       <c r="L134" t="n">
-        <v>0.9374724653094296</v>
+        <v>0.9348956601527085</v>
       </c>
       <c r="M134" t="n">
-        <v>5071.369797787196</v>
+        <v>5057.430261075295</v>
       </c>
       <c r="N134" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O134" t="n">
-        <v>826858.65349018</v>
+        <v>25288.37464047266</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -11766,31 +11766,31 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H135" t="n">
-        <v>22026.76000000001</v>
+        <v>10503.44</v>
       </c>
       <c r="I135" t="n">
-        <v>72883.56176218405</v>
+        <v>16602.10334851932</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9219536513724298</v>
+        <v>0.9197711776464549</v>
       </c>
       <c r="K135" t="n">
-        <v>0.9369536513724298</v>
+        <v>0.9347711776464549</v>
       </c>
       <c r="L135" t="n">
-        <v>0.9369536513724298</v>
+        <v>0.9347711776464549</v>
       </c>
       <c r="M135" t="n">
-        <v>5068.563211537324</v>
+        <v>5056.756858019815</v>
       </c>
       <c r="N135" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O135" t="n">
-        <v>831474.5067646105</v>
+        <v>30342.56135728533</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -11850,31 +11850,31 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H136" t="n">
-        <v>22183.89000000001</v>
+        <v>10537.37</v>
       </c>
       <c r="I136" t="n">
-        <v>73927.57539294711</v>
+        <v>16709.63438541306</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9213966221006785</v>
+        <v>0.9195117371404853</v>
       </c>
       <c r="K136" t="n">
-        <v>0.9363966221006785</v>
+        <v>0.9345117371404853</v>
       </c>
       <c r="L136" t="n">
-        <v>0.9363966221006785</v>
+        <v>0.9345117371404853</v>
       </c>
       <c r="M136" t="n">
-        <v>5065.549894848273</v>
+        <v>5055.353383469912</v>
       </c>
       <c r="N136" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
-        <v>795527.8788512694</v>
+        <v>55616.6063281935</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -11934,31 +11934,31 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H137" t="n">
-        <v>22377.82000000001</v>
+        <v>10608.33</v>
       </c>
       <c r="I137" t="n">
-        <v>75226.334334008</v>
+        <v>16935.64312692209</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9207091360275498</v>
+        <v>0.9189691524572079</v>
       </c>
       <c r="K137" t="n">
-        <v>0.9357091360275498</v>
+        <v>0.9339691524572079</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9357091360275498</v>
+        <v>0.9339691524572079</v>
       </c>
       <c r="M137" t="n">
-        <v>5061.830856437354</v>
+        <v>5052.418206515561</v>
       </c>
       <c r="N137" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O137" t="n">
-        <v>886145.8157374923</v>
+        <v>384095.320419448</v>
       </c>
       <c r="P137" t="n">
         <v>0</v>
@@ -12018,31 +12018,31 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H138" t="n">
-        <v>22575.10000000001</v>
+        <v>10719.11</v>
       </c>
       <c r="I138" t="n">
-        <v>76559.13243922267</v>
+        <v>17291.51457708951</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9200097741314696</v>
+        <v>0.9181220902924182</v>
       </c>
       <c r="K138" t="n">
-        <v>0.9350097741314696</v>
+        <v>0.9331220902924182</v>
       </c>
       <c r="L138" t="n">
-        <v>0.9350097741314696</v>
+        <v>0.9331220902924182</v>
       </c>
       <c r="M138" t="n">
-        <v>5058.047574337081</v>
+        <v>5047.835922087671</v>
       </c>
       <c r="N138" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O138" t="n">
-        <v>799470.3960311804</v>
+        <v>489862.3252372568</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -12102,31 +12102,31 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H139" t="n">
-        <v>22765.96000000001</v>
+        <v>10859.44</v>
       </c>
       <c r="I139" t="n">
-        <v>77859.69617843008</v>
+        <v>17747.62560591524</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9193331712751949</v>
+        <v>0.9170490786153561</v>
       </c>
       <c r="K139" t="n">
-        <v>0.9343331712751949</v>
+        <v>0.9320490786153561</v>
       </c>
       <c r="L139" t="n">
-        <v>0.9343331712751949</v>
+        <v>0.9320490786153561</v>
       </c>
       <c r="M139" t="n">
-        <v>5054.387409993719</v>
+        <v>5042.031336659203</v>
       </c>
       <c r="N139" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O139" t="n">
-        <v>758432.62382481</v>
+        <v>595302.1682660655</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -12186,31 +12186,31 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H140" t="n">
-        <v>22935.96000000001</v>
+        <v>10994.72</v>
       </c>
       <c r="I140" t="n">
-        <v>79027.33877890409</v>
+        <v>18192.94393537255</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9187305175731793</v>
+        <v>0.9160146809835386</v>
       </c>
       <c r="K140" t="n">
-        <v>0.9337305175731793</v>
+        <v>0.9310146809835386</v>
       </c>
       <c r="L140" t="n">
-        <v>0.9337305175731793</v>
+        <v>0.9310146809835386</v>
       </c>
       <c r="M140" t="n">
-        <v>5051.127282474222</v>
+        <v>5036.43563854217</v>
       </c>
       <c r="N140" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O140" t="n">
-        <v>666963.9697028841</v>
+        <v>529119.516198072</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -12270,31 +12270,31 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H141" t="n">
-        <v>23099.15000000001</v>
+        <v>11133.24</v>
       </c>
       <c r="I141" t="n">
-        <v>80156.38225736006</v>
+        <v>18654.64580018439</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9181520054694621</v>
+        <v>0.9149555091919997</v>
       </c>
       <c r="K141" t="n">
-        <v>0.9331520054694621</v>
+        <v>0.9299555091919998</v>
       </c>
       <c r="L141" t="n">
-        <v>0.9331520054694621</v>
+        <v>0.9299555091919998</v>
       </c>
       <c r="M141" t="n">
-        <v>5047.997751827711</v>
+        <v>5030.705921635225</v>
       </c>
       <c r="N141" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O141" t="n">
-        <v>676641.3772982295</v>
+        <v>529028.2889873221</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
@@ -12354,31 +12354,31 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H142" t="n">
-        <v>23265.23000000001</v>
+        <v>11243.88</v>
       </c>
       <c r="I142" t="n">
-        <v>81313.64259949492</v>
+        <v>19027.5768034389</v>
       </c>
       <c r="J142" t="n">
-        <v>0.9175632482528105</v>
+        <v>0.9141095175155931</v>
       </c>
       <c r="K142" t="n">
-        <v>0.9325632482528106</v>
+        <v>0.9291095175155931</v>
       </c>
       <c r="L142" t="n">
-        <v>0.9325632482528106</v>
+        <v>0.9291095175155931</v>
       </c>
       <c r="M142" t="n">
-        <v>5044.812799013369</v>
+        <v>5026.129428142703</v>
       </c>
       <c r="N142" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O142" t="n">
-        <v>706496.7385588756</v>
+        <v>477699.6791144516</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -12438,31 +12438,31 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H143" t="n">
-        <v>23411.53000000001</v>
+        <v>11323.51</v>
       </c>
       <c r="I143" t="n">
-        <v>82339.94550706977</v>
+        <v>19298.26757427163</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9170446115668995</v>
+        <v>0.9135006390160246</v>
       </c>
       <c r="K143" t="n">
-        <v>0.9320446115668996</v>
+        <v>0.9285006390160246</v>
       </c>
       <c r="L143" t="n">
-        <v>0.9320446115668996</v>
+        <v>0.9285006390160246</v>
       </c>
       <c r="M143" t="n">
-        <v>5042.007171624531</v>
+        <v>5022.835626833868</v>
       </c>
       <c r="N143" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O143" t="n">
-        <v>640513.0681355067</v>
+        <v>382363.1203418585</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
@@ -12522,31 +12522,31 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H144" t="n">
-        <v>23567.36000000002</v>
+        <v>11369.57</v>
       </c>
       <c r="I144" t="n">
-        <v>83440.18074028804</v>
+        <v>19455.7147609241</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9164921908234578</v>
+        <v>0.9131484483380122</v>
       </c>
       <c r="K144" t="n">
-        <v>0.9314921908234578</v>
+        <v>0.9281484483380122</v>
       </c>
       <c r="L144" t="n">
-        <v>0.9314921908234578</v>
+        <v>0.9281484483380122</v>
       </c>
       <c r="M144" t="n">
-        <v>5039.018785322393</v>
+        <v>5020.930409098278</v>
       </c>
       <c r="N144" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O144" t="n">
-        <v>745995.9208140724</v>
+        <v>236028.5018444054</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
@@ -12606,31 +12606,31 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H145" t="n">
-        <v>23710.81000000002</v>
+        <v>11390.8</v>
       </c>
       <c r="I145" t="n">
-        <v>84459.46215745961</v>
+        <v>19528.50078030641</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9159836574496099</v>
+        <v>0.9129861164210734</v>
       </c>
       <c r="K145" t="n">
-        <v>0.9309836574496099</v>
+        <v>0.9279861164210734</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9309836574496099</v>
+        <v>0.9279861164210734</v>
       </c>
       <c r="M145" t="n">
-        <v>5036.267813012559</v>
+        <v>5020.052255113767</v>
       </c>
       <c r="N145" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O145" t="n">
-        <v>765721.7814734563</v>
+        <v>35143.43932474216</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
@@ -12690,31 +12690,31 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H146" t="n">
-        <v>23855.01000000002</v>
+        <v>11402.63</v>
       </c>
       <c r="I146" t="n">
-        <v>85490.30926020001</v>
+        <v>19569.11832224724</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9154724653094296</v>
+        <v>0.9128956601527085</v>
       </c>
       <c r="K146" t="n">
-        <v>0.9304724653094296</v>
+        <v>0.9278956601527085</v>
       </c>
       <c r="L146" t="n">
-        <v>0.9304724653094296</v>
+        <v>0.9278956601527085</v>
       </c>
       <c r="M146" t="n">
-        <v>5033.502457787196</v>
+        <v>5019.562921075295</v>
       </c>
       <c r="N146" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O146" t="n">
-        <v>820686.2770701802</v>
+        <v>25099.03794047266</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
@@ -12774,31 +12774,31 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H147" t="n">
-        <v>24001.36000000002</v>
+        <v>11418.91</v>
       </c>
       <c r="I147" t="n">
-        <v>86542.91950898408</v>
+        <v>19625.08364669432</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9149536513724297</v>
+        <v>0.9127711776464549</v>
       </c>
       <c r="K147" t="n">
-        <v>0.9299536513724297</v>
+        <v>0.9277711776464549</v>
       </c>
       <c r="L147" t="n">
-        <v>0.9299536513724297</v>
+        <v>0.9277711776464549</v>
       </c>
       <c r="M147" t="n">
-        <v>5030.695871537323</v>
+        <v>5018.889518019815</v>
       </c>
       <c r="N147" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O147" t="n">
-        <v>825264.2630046105</v>
+        <v>30115.35731728533</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
@@ -12858,31 +12858,31 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H148" t="n">
-        <v>24158.49000000002</v>
+        <v>11452.84</v>
       </c>
       <c r="I148" t="n">
-        <v>87680.23379114713</v>
+        <v>19741.98075471805</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9143966221006785</v>
+        <v>0.9125117371404853</v>
       </c>
       <c r="K148" t="n">
-        <v>0.9293966221006785</v>
+        <v>0.9275117371404853</v>
       </c>
       <c r="L148" t="n">
-        <v>0.9293966221006785</v>
+        <v>0.9275117371404853</v>
       </c>
       <c r="M148" t="n">
-        <v>5027.682554848272</v>
+        <v>5017.486043469912</v>
       </c>
       <c r="N148" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O148" t="n">
-        <v>789582.7064712693</v>
+        <v>55200.0655881935</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -12942,31 +12942,31 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H149" t="n">
-        <v>24352.42000000002</v>
+        <v>11523.8</v>
       </c>
       <c r="I149" t="n">
-        <v>89094.14448760803</v>
+        <v>19987.57736558709</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9137091360275498</v>
+        <v>0.9119691524572079</v>
       </c>
       <c r="K149" t="n">
-        <v>0.9287091360275498</v>
+        <v>0.9269691524572079</v>
       </c>
       <c r="L149" t="n">
-        <v>0.9287091360275498</v>
+        <v>0.9269691524572079</v>
       </c>
       <c r="M149" t="n">
-        <v>5023.963516437354</v>
+        <v>5014.550866515561</v>
       </c>
       <c r="N149" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O149" t="n">
-        <v>879519.0312374922</v>
+        <v>381217.402579448</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
@@ -13026,31 +13026,31 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H150" t="n">
-        <v>24549.70000000002</v>
+        <v>11634.58</v>
       </c>
       <c r="I150" t="n">
-        <v>90544.08351122268</v>
+        <v>20374.02863773451</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9130097741314696</v>
+        <v>0.9111220902924182</v>
       </c>
       <c r="K150" t="n">
-        <v>0.9280097741314696</v>
+        <v>0.9261220902924182</v>
       </c>
       <c r="L150" t="n">
-        <v>0.9280097741314696</v>
+        <v>0.9261220902924182</v>
       </c>
       <c r="M150" t="n">
-        <v>5020.18023433708</v>
+        <v>5009.968582087671</v>
       </c>
       <c r="N150" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O150" t="n">
-        <v>793487.3563111803</v>
+        <v>486189.1932572568</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
@@ -13110,31 +13110,31 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H151" t="n">
-        <v>24740.56000000002</v>
+        <v>11774.91</v>
       </c>
       <c r="I151" t="n">
-        <v>91957.9761012301</v>
+        <v>20868.87650009023</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9123331712751949</v>
+        <v>0.9100490786153561</v>
       </c>
       <c r="K151" t="n">
-        <v>0.9273331712751949</v>
+        <v>0.9250490786153561</v>
       </c>
       <c r="L151" t="n">
-        <v>0.9273331712751949</v>
+        <v>0.9250490786153561</v>
       </c>
       <c r="M151" t="n">
-        <v>5016.52006999372</v>
+        <v>5004.163996659203</v>
       </c>
       <c r="N151" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O151" t="n">
-        <v>752752.52282481</v>
+        <v>590833.8221460655</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -13194,31 +13194,31 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H152" t="n">
-        <v>24910.56000000002</v>
+        <v>11910.19</v>
       </c>
       <c r="I152" t="n">
-        <v>93226.5613017041</v>
+        <v>21351.53765602754</v>
       </c>
       <c r="J152" t="n">
-        <v>0.9117305175731792</v>
+        <v>0.9090146809835385</v>
       </c>
       <c r="K152" t="n">
-        <v>0.9267305175731793</v>
+        <v>0.9240146809835386</v>
       </c>
       <c r="L152" t="n">
-        <v>0.9267305175731793</v>
+        <v>0.9240146809835386</v>
       </c>
       <c r="M152" t="n">
-        <v>5013.259942474222</v>
+        <v>4998.56829854217</v>
       </c>
       <c r="N152" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O152" t="n">
-        <v>661965.4808228841</v>
+        <v>525143.4454980721</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -13278,31 +13278,31 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H153" t="n">
-        <v>25073.75000000001</v>
+        <v>12048.71</v>
       </c>
       <c r="I153" t="n">
-        <v>94452.5037383601</v>
+        <v>21851.47672015938</v>
       </c>
       <c r="J153" t="n">
-        <v>0.9111520054694621</v>
+        <v>0.9079555091919997</v>
       </c>
       <c r="K153" t="n">
-        <v>0.9261520054694621</v>
+        <v>0.9229555091919998</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9261520054694621</v>
+        <v>0.9229555091919998</v>
       </c>
       <c r="M153" t="n">
-        <v>5010.130411827711</v>
+        <v>4992.838581635226</v>
       </c>
       <c r="N153" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O153" t="n">
-        <v>671567.1537382295</v>
+        <v>525048.4315533221</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -13362,31 +13362,31 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H154" t="n">
-        <v>25239.83000000002</v>
+        <v>12159.35</v>
       </c>
       <c r="I154" t="n">
-        <v>95708.37906289495</v>
+        <v>22254.9488996539</v>
       </c>
       <c r="J154" t="n">
-        <v>0.9105632482528105</v>
+        <v>0.9071095175155931</v>
       </c>
       <c r="K154" t="n">
-        <v>0.9255632482528106</v>
+        <v>0.9221095175155931</v>
       </c>
       <c r="L154" t="n">
-        <v>0.9255632482528106</v>
+        <v>0.9221095175155931</v>
       </c>
       <c r="M154" t="n">
-        <v>5006.945459013369</v>
+        <v>4988.262088142703</v>
       </c>
       <c r="N154" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O154" t="n">
-        <v>701195.3109588756</v>
+        <v>474102.2818144516</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -13446,31 +13446,31 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H155" t="n">
-        <v>25386.13000000002</v>
+        <v>12238.98</v>
       </c>
       <c r="I155" t="n">
-        <v>96821.5519844698</v>
+        <v>22547.62081531663</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9100446115668995</v>
+        <v>0.9065006390160246</v>
       </c>
       <c r="K155" t="n">
-        <v>0.9250446115668995</v>
+        <v>0.9215006390160246</v>
       </c>
       <c r="L155" t="n">
-        <v>0.9250446115668995</v>
+        <v>0.9215006390160246</v>
       </c>
       <c r="M155" t="n">
-        <v>5004.139831624531</v>
+        <v>4984.968286833867</v>
       </c>
       <c r="N155" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O155" t="n">
-        <v>635703.9159555067</v>
+        <v>379481.4157678585</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -13530,31 +13530,31 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H156" t="n">
-        <v>25541.96000000002</v>
+        <v>12285.04</v>
       </c>
       <c r="I156" t="n">
-        <v>98014.31595508807</v>
+        <v>22717.78245042909</v>
       </c>
       <c r="J156" t="n">
-        <v>0.9094921908234578</v>
+        <v>0.9061484483380122</v>
       </c>
       <c r="K156" t="n">
-        <v>0.9244921908234578</v>
+        <v>0.9211484483380122</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9244921908234578</v>
+        <v>0.9211484483380122</v>
       </c>
       <c r="M156" t="n">
-        <v>5001.151445322394</v>
+        <v>4983.063069098278</v>
       </c>
       <c r="N156" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O156" t="n">
-        <v>740391.5544940725</v>
+        <v>234248.7368644054</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -13614,31 +13614,31 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H157" t="n">
-        <v>25685.41000000002</v>
+        <v>12306.27</v>
       </c>
       <c r="I157" t="n">
-        <v>99118.77511325965</v>
+        <v>22796.42882024141</v>
       </c>
       <c r="J157" t="n">
-        <v>0.90898365744961</v>
+        <v>0.9059861164210734</v>
       </c>
       <c r="K157" t="n">
-        <v>0.92398365744961</v>
+        <v>0.9209861164210734</v>
       </c>
       <c r="L157" t="n">
-        <v>0.92398365744961</v>
+        <v>0.9209861164210734</v>
       </c>
       <c r="M157" t="n">
-        <v>4998.400473012559</v>
+        <v>4982.184915113767</v>
       </c>
       <c r="N157" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O157" t="n">
-        <v>759965.9457934564</v>
+        <v>34878.36794474216</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -13698,31 +13698,31 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H158" t="n">
-        <v>25829.61000000002</v>
+        <v>12318.1</v>
       </c>
       <c r="I158" t="n">
-        <v>100235.245292</v>
+        <v>22840.31192721224</v>
       </c>
       <c r="J158" t="n">
-        <v>0.9084724653094296</v>
+        <v>0.9058956601527085</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9234724653094296</v>
+        <v>0.9208956601527085</v>
       </c>
       <c r="L158" t="n">
-        <v>0.9234724653094296</v>
+        <v>0.9208956601527085</v>
       </c>
       <c r="M158" t="n">
-        <v>4995.635117787197</v>
+        <v>4981.695581075295</v>
       </c>
       <c r="N158" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O158" t="n">
-        <v>814513.9006501799</v>
+        <v>24909.70124047266</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -13782,31 +13782,31 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H159" t="n">
-        <v>25975.96000000002</v>
+        <v>12334.38</v>
       </c>
       <c r="I159" t="n">
-        <v>101374.7552437841</v>
+        <v>22900.77119913932</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9079536513724298</v>
+        <v>0.9057711776464549</v>
       </c>
       <c r="K159" t="n">
-        <v>0.9229536513724298</v>
+        <v>0.9207711776464549</v>
       </c>
       <c r="L159" t="n">
-        <v>0.9229536513724298</v>
+        <v>0.9207711776464549</v>
       </c>
       <c r="M159" t="n">
-        <v>4992.828531537323</v>
+        <v>4981.022178019815</v>
       </c>
       <c r="N159" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O159" t="n">
-        <v>819054.0192446106</v>
+        <v>29888.15327728533</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -13866,31 +13866,31 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H160" t="n">
-        <v>26133.09000000002</v>
+        <v>12368.31</v>
       </c>
       <c r="I160" t="n">
-        <v>102605.3701773472</v>
+        <v>23027.03437829305</v>
       </c>
       <c r="J160" t="n">
-        <v>0.9073966221006785</v>
+        <v>0.9055117371404853</v>
       </c>
       <c r="K160" t="n">
-        <v>0.9223966221006785</v>
+        <v>0.9205117371404853</v>
       </c>
       <c r="L160" t="n">
-        <v>0.9223966221006785</v>
+        <v>0.9205117371404853</v>
       </c>
       <c r="M160" t="n">
-        <v>4989.815214848272</v>
+        <v>4979.618703469912</v>
       </c>
       <c r="N160" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O160" t="n">
-        <v>783637.5340912691</v>
+        <v>54783.52484819351</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -13950,31 +13950,31 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H161" t="n">
-        <v>26327.02000000002</v>
+        <v>12439.27</v>
       </c>
       <c r="I161" t="n">
-        <v>104134.4326292081</v>
+        <v>23292.21885852208</v>
       </c>
       <c r="J161" t="n">
-        <v>0.9067091360275498</v>
+        <v>0.9049691524572079</v>
       </c>
       <c r="K161" t="n">
-        <v>0.9217091360275498</v>
+        <v>0.9199691524572079</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9217091360275498</v>
+        <v>0.9199691524572079</v>
       </c>
       <c r="M161" t="n">
-        <v>4986.096176437354</v>
+        <v>4976.683526515561</v>
       </c>
       <c r="N161" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O161" t="n">
-        <v>872892.2467374923</v>
+        <v>378339.4847394479</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -14034,31 +14034,31 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H162" t="n">
-        <v>26524.30000000002</v>
+        <v>12550.05</v>
       </c>
       <c r="I162" t="n">
-        <v>105701.5125712227</v>
+        <v>23709.2499526495</v>
       </c>
       <c r="J162" t="n">
-        <v>0.9060097741314695</v>
+        <v>0.9041220902924182</v>
       </c>
       <c r="K162" t="n">
-        <v>0.9210097741314696</v>
+        <v>0.9191220902924182</v>
       </c>
       <c r="L162" t="n">
-        <v>0.9210097741314696</v>
+        <v>0.9191220902924182</v>
       </c>
       <c r="M162" t="n">
-        <v>4982.31289433708</v>
+        <v>4972.101242087671</v>
       </c>
       <c r="N162" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O162" t="n">
-        <v>787504.3165911803</v>
+        <v>482516.0612772568</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -14118,31 +14118,31 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H163" t="n">
-        <v>26715.16000000002</v>
+        <v>12690.38</v>
       </c>
       <c r="I163" t="n">
-        <v>107228.7340120301</v>
+        <v>24242.83464853523</v>
       </c>
       <c r="J163" t="n">
-        <v>0.9053331712751949</v>
+        <v>0.9030490786153561</v>
       </c>
       <c r="K163" t="n">
-        <v>0.9203331712751949</v>
+        <v>0.9180490786153561</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9203331712751949</v>
+        <v>0.9180490786153561</v>
       </c>
       <c r="M163" t="n">
-        <v>4978.65272999372</v>
+        <v>4966.296656659203</v>
       </c>
       <c r="N163" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O163" t="n">
-        <v>747072.42182481</v>
+        <v>586365.4760260656</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -14202,31 +14202,31 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H164" t="n">
-        <v>26885.16000000002</v>
+        <v>12825.66</v>
       </c>
       <c r="I164" t="n">
-        <v>108598.2618125041</v>
+        <v>24762.83863095254</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9047305175731792</v>
+        <v>0.9020146809835385</v>
       </c>
       <c r="K164" t="n">
-        <v>0.9197305175731793</v>
+        <v>0.9170146809835386</v>
       </c>
       <c r="L164" t="n">
-        <v>0.9197305175731793</v>
+        <v>0.9170146809835386</v>
       </c>
       <c r="M164" t="n">
-        <v>4975.392602474222</v>
+        <v>4960.70095854217</v>
       </c>
       <c r="N164" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O164" t="n">
-        <v>656966.9919428842</v>
+        <v>521167.3747980721</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -14286,31 +14286,31 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H165" t="n">
-        <v>27048.35000000002</v>
+        <v>12964.18</v>
       </c>
       <c r="I165" t="n">
-        <v>109921.1032073601</v>
+        <v>25301.01489440438</v>
       </c>
       <c r="J165" t="n">
-        <v>0.9041520054694621</v>
+        <v>0.9009555091919998</v>
       </c>
       <c r="K165" t="n">
-        <v>0.9191520054694621</v>
+        <v>0.9159555091919999</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9191520054694621</v>
+        <v>0.9159555091919999</v>
       </c>
       <c r="M165" t="n">
-        <v>4972.263071827711</v>
+        <v>4954.971241635226</v>
       </c>
       <c r="N165" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O165" t="n">
-        <v>666492.9301782296</v>
+        <v>521068.5741193221</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -14370,31 +14370,31 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H166" t="n">
-        <v>27214.43000000002</v>
+        <v>13074.82</v>
       </c>
       <c r="I166" t="n">
-        <v>111275.593514295</v>
+        <v>25735.02825013889</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9035632482528105</v>
+        <v>0.9001095175155931</v>
       </c>
       <c r="K166" t="n">
-        <v>0.9185632482528105</v>
+        <v>0.9151095175155931</v>
       </c>
       <c r="L166" t="n">
-        <v>0.9185632482528105</v>
+        <v>0.9151095175155931</v>
       </c>
       <c r="M166" t="n">
-        <v>4969.078119013368</v>
+        <v>4950.394748142703</v>
       </c>
       <c r="N166" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O166" t="n">
-        <v>695893.8833588756</v>
+        <v>470504.8845144516</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -14454,31 +14454,31 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H167" t="n">
-        <v>27360.73000000002</v>
+        <v>13154.45</v>
       </c>
       <c r="I167" t="n">
-        <v>112475.6364498698</v>
+        <v>26049.68131063163</v>
       </c>
       <c r="J167" t="n">
-        <v>0.9030446115668995</v>
+        <v>0.8995006390160246</v>
       </c>
       <c r="K167" t="n">
-        <v>0.9180446115668995</v>
+        <v>0.9145006390160246</v>
       </c>
       <c r="L167" t="n">
-        <v>0.9180446115668995</v>
+        <v>0.9145006390160246</v>
       </c>
       <c r="M167" t="n">
-        <v>4966.272491624531</v>
+        <v>4947.100946833867</v>
       </c>
       <c r="N167" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O167" t="n">
-        <v>630894.7637755066</v>
+        <v>376599.7111938584</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -14538,31 +14538,31 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H168" t="n">
-        <v>27516.56000000002</v>
+        <v>13200.51</v>
       </c>
       <c r="I168" t="n">
-        <v>113760.9291578881</v>
+        <v>26232.55739420409</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9024921908234578</v>
+        <v>0.8991484483380122</v>
       </c>
       <c r="K168" t="n">
-        <v>0.9174921908234578</v>
+        <v>0.9141484483380122</v>
       </c>
       <c r="L168" t="n">
-        <v>0.9174921908234578</v>
+        <v>0.9141484483380122</v>
       </c>
       <c r="M168" t="n">
-        <v>4963.284105322394</v>
+        <v>4945.195729098277</v>
       </c>
       <c r="N168" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O168" t="n">
-        <v>734787.1881740724</v>
+        <v>232468.9718844054</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
@@ -14622,31 +14622,31 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H169" t="n">
-        <v>27660.01000000002</v>
+        <v>13221.74</v>
       </c>
       <c r="I169" t="n">
-        <v>114950.5660570597</v>
+        <v>26317.0641144464</v>
       </c>
       <c r="J169" t="n">
-        <v>0.9019836574496098</v>
+        <v>0.8989861164210734</v>
       </c>
       <c r="K169" t="n">
-        <v>0.9169836574496099</v>
+        <v>0.9139861164210734</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9169836574496099</v>
+        <v>0.9139861164210734</v>
       </c>
       <c r="M169" t="n">
-        <v>4960.533133012558</v>
+        <v>4944.317575113767</v>
       </c>
       <c r="N169" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O169" t="n">
-        <v>754210.1101134564</v>
+        <v>34613.29656474215</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
@@ -14706,31 +14706,31 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H170" t="n">
-        <v>27804.21000000002</v>
+        <v>13233.57</v>
       </c>
       <c r="I170" t="n">
-        <v>116152.6593118001</v>
+        <v>26364.21278644724</v>
       </c>
       <c r="J170" t="n">
-        <v>0.9014724653094296</v>
+        <v>0.8988956601527085</v>
       </c>
       <c r="K170" t="n">
-        <v>0.9164724653094296</v>
+        <v>0.9138956601527085</v>
       </c>
       <c r="L170" t="n">
-        <v>0.9164724653094296</v>
+        <v>0.9138956601527085</v>
       </c>
       <c r="M170" t="n">
-        <v>4957.767777787197</v>
+        <v>4943.828241075294</v>
       </c>
       <c r="N170" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O170" t="n">
-        <v>808341.5242301801</v>
+        <v>24720.36454047266</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -14790,31 +14790,31 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H171" t="n">
-        <v>27950.56000000002</v>
+        <v>13249.85</v>
       </c>
       <c r="I171" t="n">
-        <v>117379.0689665841</v>
+        <v>26429.16600585431</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9009536513724297</v>
+        <v>0.8987711776464549</v>
       </c>
       <c r="K171" t="n">
-        <v>0.9159536513724297</v>
+        <v>0.9137711776464549</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9159536513724297</v>
+        <v>0.9137711776464549</v>
       </c>
       <c r="M171" t="n">
-        <v>4954.961191537323</v>
+        <v>4943.154838019816</v>
       </c>
       <c r="N171" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O171" t="n">
-        <v>812843.7754846105</v>
+        <v>29660.94923728533</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -14874,31 +14874,31 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H172" t="n">
-        <v>28107.69000000002</v>
+        <v>13283.78</v>
       </c>
       <c r="I172" t="n">
-        <v>118702.9845515472</v>
+        <v>26564.79525613805</v>
       </c>
       <c r="J172" t="n">
-        <v>0.9003966221006785</v>
+        <v>0.8985117371404853</v>
       </c>
       <c r="K172" t="n">
-        <v>0.9153966221006785</v>
+        <v>0.9135117371404853</v>
       </c>
       <c r="L172" t="n">
-        <v>0.9153966221006785</v>
+        <v>0.9135117371404853</v>
       </c>
       <c r="M172" t="n">
-        <v>4951.947874848272</v>
+        <v>4941.751363469912</v>
       </c>
       <c r="N172" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O172" t="n">
-        <v>777692.3617112692</v>
+        <v>54366.9841081935</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -14958,31 +14958,31 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H173" t="n">
-        <v>28301.62000000002</v>
+        <v>13354.74</v>
       </c>
       <c r="I173" t="n">
-        <v>120347.1987588081</v>
+        <v>26849.56760572708</v>
       </c>
       <c r="J173" t="n">
-        <v>0.8997091360275498</v>
+        <v>0.8979691524572079</v>
       </c>
       <c r="K173" t="n">
-        <v>0.9147091360275498</v>
+        <v>0.9129691524572079</v>
       </c>
       <c r="L173" t="n">
-        <v>0.9147091360275498</v>
+        <v>0.9129691524572079</v>
       </c>
       <c r="M173" t="n">
-        <v>4948.228836437353</v>
+        <v>4938.816186515561</v>
       </c>
       <c r="N173" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O173" t="n">
-        <v>866265.4622374922</v>
+        <v>375461.566899448</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -15042,31 +15042,31 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H174" t="n">
-        <v>28498.90000000002</v>
+        <v>13465.52</v>
       </c>
       <c r="I174" t="n">
-        <v>122031.4196192228</v>
+        <v>27297.1785218345</v>
       </c>
       <c r="J174" t="n">
-        <v>0.8990097741314695</v>
+        <v>0.8971220902924182</v>
       </c>
       <c r="K174" t="n">
-        <v>0.9140097741314696</v>
+        <v>0.9121220902924182</v>
       </c>
       <c r="L174" t="n">
-        <v>0.9140097741314696</v>
+        <v>0.9121220902924182</v>
       </c>
       <c r="M174" t="n">
-        <v>4944.44555433708</v>
+        <v>4934.233902087672</v>
       </c>
       <c r="N174" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O174" t="n">
-        <v>781521.2768711804</v>
+        <v>478842.9292972567</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -15126,31 +15126,31 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H175" t="n">
-        <v>28689.76000000002</v>
+        <v>13605.85</v>
       </c>
       <c r="I175" t="n">
-        <v>123671.9699108302</v>
+        <v>27869.50005125023</v>
       </c>
       <c r="J175" t="n">
-        <v>0.8983331712751949</v>
+        <v>0.8960490786153561</v>
       </c>
       <c r="K175" t="n">
-        <v>0.9133331712751949</v>
+        <v>0.9110490786153561</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9133331712751949</v>
+        <v>0.9110490786153561</v>
       </c>
       <c r="M175" t="n">
-        <v>4940.78538999372</v>
+        <v>4928.429316659202</v>
       </c>
       <c r="N175" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O175" t="n">
-        <v>741392.3208248101</v>
+        <v>581897.1299060656</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -15210,31 +15210,31 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H176" t="n">
-        <v>28859.76000000002</v>
+        <v>13741.13</v>
       </c>
       <c r="I176" t="n">
-        <v>125142.4403113041</v>
+        <v>28426.84686014754</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8977305175731792</v>
+        <v>0.8950146809835386</v>
       </c>
       <c r="K176" t="n">
-        <v>0.9127305175731792</v>
+        <v>0.9100146809835387</v>
       </c>
       <c r="L176" t="n">
-        <v>0.9127305175731792</v>
+        <v>0.9100146809835387</v>
       </c>
       <c r="M176" t="n">
-        <v>4937.525262474222</v>
+        <v>4922.83361854217</v>
       </c>
       <c r="N176" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O176" t="n">
-        <v>651968.5030628842</v>
+        <v>517191.304098072</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
@@ -15294,31 +15294,31 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H177" t="n">
-        <v>29022.95000000002</v>
+        <v>13879.65</v>
       </c>
       <c r="I177" t="n">
-        <v>126562.1806643601</v>
+        <v>29003.26032291938</v>
       </c>
       <c r="J177" t="n">
-        <v>0.8971520054694621</v>
+        <v>0.8939555091919998</v>
       </c>
       <c r="K177" t="n">
-        <v>0.9121520054694621</v>
+        <v>0.9089555091919999</v>
       </c>
       <c r="L177" t="n">
-        <v>0.9121520054694621</v>
+        <v>0.9089555091919999</v>
       </c>
       <c r="M177" t="n">
-        <v>4934.395731827712</v>
+        <v>4917.103901635226</v>
       </c>
       <c r="N177" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O177" t="n">
-        <v>661418.7066182296</v>
+        <v>517088.7166853222</v>
       </c>
       <c r="P177" t="n">
         <v>0</v>
@@ -15378,31 +15378,31 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H178" t="n">
-        <v>29189.03000000002</v>
+        <v>13990.29</v>
       </c>
       <c r="I178" t="n">
-        <v>128015.285953695</v>
+        <v>29467.81485489389</v>
       </c>
       <c r="J178" t="n">
-        <v>0.8965632482528105</v>
+        <v>0.8931095175155932</v>
       </c>
       <c r="K178" t="n">
-        <v>0.9115632482528105</v>
+        <v>0.9081095175155932</v>
       </c>
       <c r="L178" t="n">
-        <v>0.9115632482528105</v>
+        <v>0.9081095175155932</v>
       </c>
       <c r="M178" t="n">
-        <v>4931.210779013369</v>
+        <v>4912.527408142703</v>
       </c>
       <c r="N178" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O178" t="n">
-        <v>690592.4557588756</v>
+        <v>466907.4872144517</v>
       </c>
       <c r="P178" t="n">
         <v>0</v>
@@ -15462,31 +15462,31 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H179" t="n">
-        <v>29335.33000000002</v>
+        <v>14069.92</v>
       </c>
       <c r="I179" t="n">
-        <v>129302.1989032699</v>
+        <v>29804.44906021663</v>
       </c>
       <c r="J179" t="n">
-        <v>0.8960446115668995</v>
+        <v>0.8925006390160246</v>
       </c>
       <c r="K179" t="n">
-        <v>0.9110446115668995</v>
+        <v>0.9075006390160246</v>
       </c>
       <c r="L179" t="n">
-        <v>0.9110446115668995</v>
+        <v>0.9075006390160246</v>
       </c>
       <c r="M179" t="n">
-        <v>4928.405151624531</v>
+        <v>4909.233606833867</v>
       </c>
       <c r="N179" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O179" t="n">
-        <v>626085.6115955067</v>
+        <v>373718.0066198585</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -15546,31 +15546,31 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H180" t="n">
-        <v>29491.16000000002</v>
+        <v>14115.98</v>
       </c>
       <c r="I180" t="n">
-        <v>130680.0203486881</v>
+        <v>30000.03959224909</v>
       </c>
       <c r="J180" t="n">
-        <v>0.8954921908234578</v>
+        <v>0.8921484483380122</v>
       </c>
       <c r="K180" t="n">
-        <v>0.9104921908234578</v>
+        <v>0.9071484483380122</v>
       </c>
       <c r="L180" t="n">
-        <v>0.9104921908234578</v>
+        <v>0.9071484483380122</v>
       </c>
       <c r="M180" t="n">
-        <v>4925.416765322394</v>
+        <v>4907.328389098278</v>
       </c>
       <c r="N180" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O180" t="n">
-        <v>729182.8218540724</v>
+        <v>230689.2069044054</v>
       </c>
       <c r="P180" t="n">
         <v>0</v>
@@ -15630,31 +15630,31 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H181" t="n">
-        <v>29634.61000000002</v>
+        <v>14137.21</v>
       </c>
       <c r="I181" t="n">
-        <v>131954.8349888597</v>
+        <v>30090.4066629214</v>
       </c>
       <c r="J181" t="n">
-        <v>0.8949836574496099</v>
+        <v>0.8919861164210734</v>
       </c>
       <c r="K181" t="n">
-        <v>0.90998365744961</v>
+        <v>0.9069861164210734</v>
       </c>
       <c r="L181" t="n">
-        <v>0.90998365744961</v>
+        <v>0.9069861164210734</v>
       </c>
       <c r="M181" t="n">
-        <v>4922.665793012559</v>
+        <v>4906.450235113767</v>
       </c>
       <c r="N181" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O181" t="n">
-        <v>748454.2744334565</v>
+        <v>34348.22518474216</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -15714,31 +15714,31 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H182" t="n">
-        <v>29778.81000000002</v>
+        <v>14149.04</v>
       </c>
       <c r="I182" t="n">
-        <v>133242.5513196001</v>
+        <v>30140.82089995224</v>
       </c>
       <c r="J182" t="n">
-        <v>0.8944724653094296</v>
+        <v>0.8918956601527085</v>
       </c>
       <c r="K182" t="n">
-        <v>0.9094724653094296</v>
+        <v>0.9068956601527085</v>
       </c>
       <c r="L182" t="n">
-        <v>0.9094724653094296</v>
+        <v>0.9068956601527085</v>
       </c>
       <c r="M182" t="n">
-        <v>4919.900437787196</v>
+        <v>4905.960901075295</v>
       </c>
       <c r="N182" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O182" t="n">
-        <v>802169.1478101801</v>
+        <v>24531.02784047265</v>
       </c>
       <c r="P182" t="n">
         <v>0</v>
@@ -15798,31 +15798,31 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H183" t="n">
-        <v>29925.16000000002</v>
+        <v>14165.32</v>
       </c>
       <c r="I183" t="n">
-        <v>134555.8606773841</v>
+        <v>30210.2680668393</v>
       </c>
       <c r="J183" t="n">
-        <v>0.8939536513724298</v>
+        <v>0.891771177646455</v>
       </c>
       <c r="K183" t="n">
-        <v>0.9089536513724298</v>
+        <v>0.906771177646455</v>
       </c>
       <c r="L183" t="n">
-        <v>0.9089536513724298</v>
+        <v>0.906771177646455</v>
       </c>
       <c r="M183" t="n">
-        <v>4917.093851537324</v>
+        <v>4905.287498019816</v>
       </c>
       <c r="N183" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O183" t="n">
-        <v>806633.5317246107</v>
+        <v>29433.74519728533</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
@@ -15882,31 +15882,31 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H184" t="n">
-        <v>30082.29000000002</v>
+        <v>14199.25</v>
       </c>
       <c r="I184" t="n">
-        <v>135973.0769137472</v>
+        <v>30355.26338825304</v>
       </c>
       <c r="J184" t="n">
-        <v>0.8933966221006785</v>
+        <v>0.8915117371404853</v>
       </c>
       <c r="K184" t="n">
-        <v>0.9083966221006785</v>
+        <v>0.9065117371404853</v>
       </c>
       <c r="L184" t="n">
-        <v>0.9083966221006785</v>
+        <v>0.9065117371404853</v>
       </c>
       <c r="M184" t="n">
-        <v>4914.080534848273</v>
+        <v>4903.884023469912</v>
       </c>
       <c r="N184" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O184" t="n">
-        <v>771747.1893312692</v>
+        <v>53950.4433681935</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -15966,31 +15966,31 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H185" t="n">
-        <v>30276.22000000002</v>
+        <v>14270.21</v>
       </c>
       <c r="I185" t="n">
-        <v>137732.4428764081</v>
+        <v>30659.62360720208</v>
       </c>
       <c r="J185" t="n">
-        <v>0.8927091360275498</v>
+        <v>0.8909691524572079</v>
       </c>
       <c r="K185" t="n">
-        <v>0.9077091360275498</v>
+        <v>0.9059691524572079</v>
       </c>
       <c r="L185" t="n">
-        <v>0.9077091360275498</v>
+        <v>0.9059691524572079</v>
       </c>
       <c r="M185" t="n">
-        <v>4910.361496437354</v>
+        <v>4900.948846515561</v>
       </c>
       <c r="N185" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O185" t="n">
-        <v>859638.6777374924</v>
+        <v>372583.6490594479</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -16050,31 +16050,31 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H186" t="n">
-        <v>30473.50000000002</v>
+        <v>14380.99</v>
       </c>
       <c r="I186" t="n">
-        <v>139533.8046552228</v>
+        <v>31137.81434528949</v>
       </c>
       <c r="J186" t="n">
-        <v>0.8920097741314695</v>
+        <v>0.8901220902924182</v>
       </c>
       <c r="K186" t="n">
-        <v>0.9070097741314695</v>
+        <v>0.9051220902924182</v>
       </c>
       <c r="L186" t="n">
-        <v>0.9070097741314695</v>
+        <v>0.9051220902924182</v>
       </c>
       <c r="M186" t="n">
-        <v>4906.57821433708</v>
+        <v>4896.366562087671</v>
       </c>
       <c r="N186" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O186" t="n">
-        <v>775538.2371511803</v>
+        <v>475169.7973172567</v>
       </c>
       <c r="P186" t="n">
         <v>0</v>
@@ -16134,31 +16134,31 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H187" t="n">
-        <v>30664.36000000002</v>
+        <v>14521.32</v>
       </c>
       <c r="I187" t="n">
-        <v>141287.6837976302</v>
+        <v>31748.87270823523</v>
       </c>
       <c r="J187" t="n">
-        <v>0.8913331712751948</v>
+        <v>0.8890490786153561</v>
       </c>
       <c r="K187" t="n">
-        <v>0.9063331712751949</v>
+        <v>0.9040490786153561</v>
       </c>
       <c r="L187" t="n">
-        <v>0.9063331712751949</v>
+        <v>0.9040490786153561</v>
       </c>
       <c r="M187" t="n">
-        <v>4902.918049993719</v>
+        <v>4890.561976659203</v>
       </c>
       <c r="N187" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O187" t="n">
-        <v>735712.2198248099</v>
+        <v>577428.7837860655</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -16218,31 +16218,31 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H188" t="n">
-        <v>30834.36000000002</v>
+        <v>14656.6</v>
       </c>
       <c r="I188" t="n">
-        <v>142859.0967981042</v>
+        <v>32343.56234361253</v>
       </c>
       <c r="J188" t="n">
-        <v>0.8907305175731792</v>
+        <v>0.8880146809835386</v>
       </c>
       <c r="K188" t="n">
-        <v>0.9057305175731792</v>
+        <v>0.9030146809835387</v>
       </c>
       <c r="L188" t="n">
-        <v>0.9057305175731792</v>
+        <v>0.9030146809835387</v>
       </c>
       <c r="M188" t="n">
-        <v>4899.657922474222</v>
+        <v>4884.966278542171</v>
       </c>
       <c r="N188" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O188" t="n">
-        <v>646970.0141828841</v>
+        <v>513215.2333980721</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
@@ -16302,31 +16302,31 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H189" t="n">
-        <v>30997.55000000002</v>
+        <v>14795.12</v>
       </c>
       <c r="I189" t="n">
-        <v>144375.7361093602</v>
+        <v>32958.21300570438</v>
       </c>
       <c r="J189" t="n">
-        <v>0.890152005469462</v>
+        <v>0.8869555091919998</v>
       </c>
       <c r="K189" t="n">
-        <v>0.9051520054694621</v>
+        <v>0.9019555091919998</v>
       </c>
       <c r="L189" t="n">
-        <v>0.9051520054694621</v>
+        <v>0.9019555091919998</v>
       </c>
       <c r="M189" t="n">
-        <v>4896.528391827711</v>
+        <v>4879.236561635226</v>
       </c>
       <c r="N189" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O189" t="n">
-        <v>656344.4830582294</v>
+        <v>513108.8592513222</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -16386,31 +16386,31 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H190" t="n">
-        <v>31163.63000000002</v>
+        <v>14905.76</v>
       </c>
       <c r="I190" t="n">
-        <v>145927.456381095</v>
+        <v>33453.30871391889</v>
       </c>
       <c r="J190" t="n">
-        <v>0.8895632482528105</v>
+        <v>0.8861095175155932</v>
       </c>
       <c r="K190" t="n">
-        <v>0.9045632482528105</v>
+        <v>0.9011095175155932</v>
       </c>
       <c r="L190" t="n">
-        <v>0.9045632482528105</v>
+        <v>0.9011095175155932</v>
       </c>
       <c r="M190" t="n">
-        <v>4893.343439013369</v>
+        <v>4874.660068142703</v>
       </c>
       <c r="N190" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O190" t="n">
-        <v>685291.0281588755</v>
+        <v>463310.0899144516</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
@@ -16470,31 +16470,31 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H191" t="n">
-        <v>31309.93000000002</v>
+        <v>14985.39</v>
       </c>
       <c r="I191" t="n">
-        <v>147301.2393446699</v>
+        <v>33811.92406407162</v>
       </c>
       <c r="J191" t="n">
-        <v>0.8890446115668995</v>
+        <v>0.8855006390160246</v>
       </c>
       <c r="K191" t="n">
-        <v>0.9040446115668995</v>
+        <v>0.9005006390160246</v>
       </c>
       <c r="L191" t="n">
-        <v>0.9040446115668995</v>
+        <v>0.9005006390160246</v>
       </c>
       <c r="M191" t="n">
-        <v>4890.537811624531</v>
+        <v>4871.366266833867</v>
       </c>
       <c r="N191" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O191" t="n">
-        <v>621276.4594155067</v>
+        <v>370836.3020458585</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
@@ -16554,31 +16554,31 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H192" t="n">
-        <v>31465.76000000002</v>
+        <v>15031.45</v>
       </c>
       <c r="I192" t="n">
-        <v>148771.5895274882</v>
+        <v>34020.22904456408</v>
       </c>
       <c r="J192" t="n">
-        <v>0.8884921908234578</v>
+        <v>0.8851484483380123</v>
       </c>
       <c r="K192" t="n">
-        <v>0.9034921908234578</v>
+        <v>0.9001484483380123</v>
       </c>
       <c r="L192" t="n">
-        <v>0.9034921908234578</v>
+        <v>0.9001484483380123</v>
       </c>
       <c r="M192" t="n">
-        <v>4887.549425322393</v>
+        <v>4869.461049098278</v>
       </c>
       <c r="N192" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O192" t="n">
-        <v>723578.4555340725</v>
+        <v>228909.4419244054</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
@@ -16638,31 +16638,31 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H193" t="n">
-        <v>31609.21000000002</v>
+        <v>15052.67999999999</v>
       </c>
       <c r="I193" t="n">
-        <v>150131.5819086597</v>
+        <v>34116.45646566639</v>
       </c>
       <c r="J193" t="n">
-        <v>0.8879836574496098</v>
+        <v>0.8849861164210734</v>
       </c>
       <c r="K193" t="n">
-        <v>0.9029836574496098</v>
+        <v>0.8999861164210734</v>
       </c>
       <c r="L193" t="n">
-        <v>0.9029836574496098</v>
+        <v>0.8999861164210734</v>
       </c>
       <c r="M193" t="n">
-        <v>4884.798453012559</v>
+        <v>4868.582895113767</v>
       </c>
       <c r="N193" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O193" t="n">
-        <v>742698.4387534565</v>
+        <v>34083.15380474216</v>
       </c>
       <c r="P193" t="n">
         <v>0</v>
@@ -16722,31 +16722,31 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H194" t="n">
-        <v>31753.41000000003</v>
+        <v>15064.50999999999</v>
       </c>
       <c r="I194" t="n">
-        <v>151504.9213154001</v>
+        <v>34170.13626772723</v>
       </c>
       <c r="J194" t="n">
-        <v>0.8874724653094296</v>
+        <v>0.8848956601527085</v>
       </c>
       <c r="K194" t="n">
-        <v>0.9024724653094296</v>
+        <v>0.8998956601527085</v>
       </c>
       <c r="L194" t="n">
-        <v>0.9024724653094296</v>
+        <v>0.8998956601527085</v>
       </c>
       <c r="M194" t="n">
-        <v>4882.033097787196</v>
+        <v>4868.093561075295</v>
       </c>
       <c r="N194" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O194" t="n">
-        <v>795996.77139018</v>
+        <v>24341.69114047266</v>
       </c>
       <c r="P194" t="n">
         <v>0</v>
@@ -16806,31 +16806,31 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H195" t="n">
-        <v>31899.76000000002</v>
+        <v>15080.79</v>
       </c>
       <c r="I195" t="n">
-        <v>152905.1303761842</v>
+        <v>34244.07738209431</v>
       </c>
       <c r="J195" t="n">
-        <v>0.8869536513724297</v>
+        <v>0.884771177646455</v>
       </c>
       <c r="K195" t="n">
-        <v>0.9019536513724297</v>
+        <v>0.899771177646455</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9019536513724297</v>
+        <v>0.899771177646455</v>
       </c>
       <c r="M195" t="n">
-        <v>4879.226511537323</v>
+        <v>4867.420158019816</v>
       </c>
       <c r="N195" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O195" t="n">
-        <v>800423.2879646106</v>
+        <v>29206.54115728533</v>
       </c>
       <c r="P195" t="n">
         <v>0</v>
@@ -16890,31 +16890,31 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H196" t="n">
-        <v>32056.89000000002</v>
+        <v>15114.72</v>
       </c>
       <c r="I196" t="n">
-        <v>154415.6472639472</v>
+        <v>34398.43877463804</v>
       </c>
       <c r="J196" t="n">
-        <v>0.8863966221006785</v>
+        <v>0.8845117371404854</v>
       </c>
       <c r="K196" t="n">
-        <v>0.9013966221006785</v>
+        <v>0.8995117371404854</v>
       </c>
       <c r="L196" t="n">
-        <v>0.9013966221006785</v>
+        <v>0.8995117371404854</v>
       </c>
       <c r="M196" t="n">
-        <v>4876.213194848272</v>
+        <v>4866.016683469912</v>
       </c>
       <c r="N196" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O196" t="n">
-        <v>765802.0169512691</v>
+        <v>53533.90262819351</v>
       </c>
       <c r="P196" t="n">
         <v>0</v>
@@ -16974,31 +16974,31 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H197" t="n">
-        <v>32250.82000000003</v>
+        <v>15185.67999999999</v>
       </c>
       <c r="I197" t="n">
-        <v>156290.1649820082</v>
+        <v>34722.38686294707</v>
       </c>
       <c r="J197" t="n">
-        <v>0.8857091360275497</v>
+        <v>0.8839691524572079</v>
       </c>
       <c r="K197" t="n">
-        <v>0.9007091360275498</v>
+        <v>0.8989691524572079</v>
       </c>
       <c r="L197" t="n">
-        <v>0.9007091360275498</v>
+        <v>0.8989691524572079</v>
       </c>
       <c r="M197" t="n">
-        <v>4872.494156437354</v>
+        <v>4863.081506515561</v>
       </c>
       <c r="N197" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O197" t="n">
-        <v>853011.8932374923</v>
+        <v>369705.731219448</v>
       </c>
       <c r="P197" t="n">
         <v>0</v>
@@ -17058,31 +17058,31 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H198" t="n">
-        <v>32448.10000000002</v>
+        <v>15296.46</v>
       </c>
       <c r="I198" t="n">
-        <v>158208.6676792228</v>
+        <v>35231.15742301449</v>
       </c>
       <c r="J198" t="n">
-        <v>0.8850097741314695</v>
+        <v>0.8831220902924182</v>
       </c>
       <c r="K198" t="n">
-        <v>0.9000097741314695</v>
+        <v>0.8981220902924182</v>
       </c>
       <c r="L198" t="n">
-        <v>0.9000097741314695</v>
+        <v>0.8981220902924182</v>
       </c>
       <c r="M198" t="n">
-        <v>4868.71087433708</v>
+        <v>4858.499222087671</v>
       </c>
       <c r="N198" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O198" t="n">
-        <v>769555.1974311803</v>
+        <v>471496.6653372567</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -17142,31 +17142,31 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H199" t="n">
-        <v>32638.96000000002</v>
+        <v>15436.79</v>
       </c>
       <c r="I199" t="n">
-        <v>160075.8756724302</v>
+        <v>35880.95261949022</v>
       </c>
       <c r="J199" t="n">
-        <v>0.8843331712751948</v>
+        <v>0.8820490786153561</v>
       </c>
       <c r="K199" t="n">
-        <v>0.8993331712751949</v>
+        <v>0.8970490786153561</v>
       </c>
       <c r="L199" t="n">
-        <v>0.8993331712751949</v>
+        <v>0.8970490786153561</v>
       </c>
       <c r="M199" t="n">
-        <v>4865.050709993719</v>
+        <v>4852.694636659203</v>
       </c>
       <c r="N199" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O199" t="n">
-        <v>730032.1188248099</v>
+        <v>572960.4376660655</v>
       </c>
       <c r="P199" t="n">
         <v>0</v>
@@ -17226,31 +17226,31 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H200" t="n">
-        <v>32808.96000000002</v>
+        <v>15572.07</v>
       </c>
       <c r="I200" t="n">
-        <v>161748.2312729042</v>
+        <v>36512.98508134754</v>
       </c>
       <c r="J200" t="n">
-        <v>0.8837305175731792</v>
+        <v>0.8810146809835386</v>
       </c>
       <c r="K200" t="n">
-        <v>0.8987305175731792</v>
+        <v>0.8960146809835386</v>
       </c>
       <c r="L200" t="n">
-        <v>0.8987305175731792</v>
+        <v>0.8960146809835386</v>
       </c>
       <c r="M200" t="n">
-        <v>4861.790582474222</v>
+        <v>4847.09893854217</v>
       </c>
       <c r="N200" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O200" t="n">
-        <v>641971.5253028842</v>
+        <v>509239.1626980721</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
@@ -17310,31 +17310,31 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H201" t="n">
-        <v>32972.15000000002</v>
+        <v>15710.59</v>
       </c>
       <c r="I201" t="n">
-        <v>163361.7695423602</v>
+        <v>37165.87294275936</v>
       </c>
       <c r="J201" t="n">
-        <v>0.883152005469462</v>
+        <v>0.8799555091919998</v>
       </c>
       <c r="K201" t="n">
-        <v>0.8981520054694621</v>
+        <v>0.8949555091919998</v>
       </c>
       <c r="L201" t="n">
-        <v>0.8981520054694621</v>
+        <v>0.8949555091919998</v>
       </c>
       <c r="M201" t="n">
-        <v>4858.661051827711</v>
+        <v>4841.369221635226</v>
       </c>
       <c r="N201" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O201" t="n">
-        <v>651270.2594982295</v>
+        <v>509129.0018173221</v>
       </c>
       <c r="P201" t="n">
         <v>0</v>
@@ -17394,31 +17394,31 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H202" t="n">
-        <v>33138.23000000003</v>
+        <v>15821.23</v>
       </c>
       <c r="I202" t="n">
-        <v>165012.1047964951</v>
+        <v>37691.50982721388</v>
       </c>
       <c r="J202" t="n">
-        <v>0.8825632482528105</v>
+        <v>0.8791095175155932</v>
       </c>
       <c r="K202" t="n">
-        <v>0.8975632482528105</v>
+        <v>0.8941095175155932</v>
       </c>
       <c r="L202" t="n">
-        <v>0.8975632482528105</v>
+        <v>0.8941095175155932</v>
       </c>
       <c r="M202" t="n">
-        <v>4855.476099013369</v>
+        <v>4836.792728142703</v>
       </c>
       <c r="N202" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O202" t="n">
-        <v>679989.6005588757</v>
+        <v>459712.6926144516</v>
       </c>
       <c r="P202" t="n">
         <v>0</v>
@@ -17478,31 +17478,31 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H203" t="n">
-        <v>33284.53000000003</v>
+        <v>15900.86</v>
       </c>
       <c r="I203" t="n">
-        <v>166472.75777407</v>
+        <v>38072.10632219662</v>
       </c>
       <c r="J203" t="n">
-        <v>0.8820446115668994</v>
+        <v>0.8785006390160246</v>
       </c>
       <c r="K203" t="n">
-        <v>0.8970446115668994</v>
+        <v>0.8935006390160246</v>
       </c>
       <c r="L203" t="n">
-        <v>0.8970446115668994</v>
+        <v>0.8935006390160246</v>
       </c>
       <c r="M203" t="n">
-        <v>4852.67047162453</v>
+        <v>4833.498926833867</v>
       </c>
       <c r="N203" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O203" t="n">
-        <v>616467.3072355066</v>
+        <v>367954.5974718584</v>
       </c>
       <c r="P203" t="n">
         <v>0</v>
@@ -17562,31 +17562,31 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H204" t="n">
-        <v>33440.36000000003</v>
+        <v>15946.91999999999</v>
       </c>
       <c r="I204" t="n">
-        <v>168035.6366942882</v>
+        <v>38293.12575114907</v>
       </c>
       <c r="J204" t="n">
-        <v>0.8814921908234578</v>
+        <v>0.8781484483380123</v>
       </c>
       <c r="K204" t="n">
-        <v>0.8964921908234578</v>
+        <v>0.8931484483380123</v>
       </c>
       <c r="L204" t="n">
-        <v>0.8964921908234578</v>
+        <v>0.8931484483380123</v>
       </c>
       <c r="M204" t="n">
-        <v>4849.682085322394</v>
+        <v>4831.593709098278</v>
       </c>
       <c r="N204" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O204" t="n">
-        <v>717974.0892140723</v>
+        <v>227129.6769444054</v>
       </c>
       <c r="P204" t="n">
         <v>0</v>
@@ -17646,31 +17646,31 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H205" t="n">
-        <v>33583.81000000003</v>
+        <v>15968.14999999999</v>
       </c>
       <c r="I205" t="n">
-        <v>169480.8068164597</v>
+        <v>38395.21352268139</v>
       </c>
       <c r="J205" t="n">
-        <v>0.8809836574496099</v>
+        <v>0.8779861164210734</v>
       </c>
       <c r="K205" t="n">
-        <v>0.8959836574496099</v>
+        <v>0.8929861164210734</v>
       </c>
       <c r="L205" t="n">
-        <v>0.8959836574496099</v>
+        <v>0.8929861164210734</v>
       </c>
       <c r="M205" t="n">
-        <v>4846.931113012559</v>
+        <v>4830.715555113767</v>
       </c>
       <c r="N205" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O205" t="n">
-        <v>736942.6030734563</v>
+        <v>33818.08242474216</v>
       </c>
       <c r="P205" t="n">
         <v>0</v>
@@ -17730,31 +17730,31 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H206" t="n">
-        <v>33728.01000000002</v>
+        <v>15979.97999999999</v>
       </c>
       <c r="I206" t="n">
-        <v>170939.7692992001</v>
+        <v>38452.15888977222</v>
       </c>
       <c r="J206" t="n">
-        <v>0.8804724653094296</v>
+        <v>0.8778956601527086</v>
       </c>
       <c r="K206" t="n">
-        <v>0.8954724653094296</v>
+        <v>0.8928956601527086</v>
       </c>
       <c r="L206" t="n">
-        <v>0.8954724653094296</v>
+        <v>0.8928956601527086</v>
       </c>
       <c r="M206" t="n">
-        <v>4844.165757787197</v>
+        <v>4830.226221075295</v>
       </c>
       <c r="N206" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O206" t="n">
-        <v>789824.3949701801</v>
+        <v>24152.35444047266</v>
       </c>
       <c r="P206" t="n">
         <v>0</v>
@@ -17814,31 +17814,31 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H207" t="n">
-        <v>33874.36000000002</v>
+        <v>15996.25999999999</v>
       </c>
       <c r="I207" t="n">
-        <v>172426.8780629842</v>
+        <v>38530.5939516193</v>
       </c>
       <c r="J207" t="n">
-        <v>0.8799536513724298</v>
+        <v>0.877771177646455</v>
       </c>
       <c r="K207" t="n">
-        <v>0.8949536513724298</v>
+        <v>0.892771177646455</v>
       </c>
       <c r="L207" t="n">
-        <v>0.8949536513724298</v>
+        <v>0.892771177646455</v>
       </c>
       <c r="M207" t="n">
-        <v>4841.359171537323</v>
+        <v>4829.552818019815</v>
       </c>
       <c r="N207" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O207" t="n">
-        <v>794213.0442046106</v>
+        <v>28979.33711728533</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
@@ -17898,31 +17898,31 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H208" t="n">
-        <v>34031.49000000002</v>
+        <v>16030.19</v>
       </c>
       <c r="I208" t="n">
-        <v>174030.6956021472</v>
+        <v>38694.32141529304</v>
       </c>
       <c r="J208" t="n">
-        <v>0.8793966221006785</v>
+        <v>0.8775117371404854</v>
       </c>
       <c r="K208" t="n">
-        <v>0.8943966221006785</v>
+        <v>0.8925117371404854</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8943966221006785</v>
+        <v>0.8925117371404854</v>
       </c>
       <c r="M208" t="n">
-        <v>4838.345854848272</v>
+        <v>4828.149343469912</v>
       </c>
       <c r="N208" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O208" t="n">
-        <v>759856.8445712694</v>
+        <v>53117.3618881935</v>
       </c>
       <c r="P208" t="n">
         <v>0</v>
@@ -17982,31 +17982,31 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>34225.42000000002</v>
+        <v>16101.14999999999</v>
       </c>
       <c r="I209" t="n">
-        <v>176020.3650756082</v>
+        <v>39037.85737296207</v>
       </c>
       <c r="J209" t="n">
-        <v>0.8787091360275497</v>
+        <v>0.8769691524572079</v>
       </c>
       <c r="K209" t="n">
-        <v>0.8937091360275498</v>
+        <v>0.8919691524572079</v>
       </c>
       <c r="L209" t="n">
-        <v>0.8937091360275498</v>
+        <v>0.8919691524572079</v>
       </c>
       <c r="M209" t="n">
-        <v>4834.626816437353</v>
+        <v>4825.21416651556</v>
       </c>
       <c r="N209" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O209" t="n">
-        <v>846385.1087374921</v>
+        <v>366827.813379448</v>
       </c>
       <c r="P209" t="n">
         <v>0</v>
@@ -18066,31 +18066,31 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H210" t="n">
-        <v>34422.70000000002</v>
+        <v>16211.92999999999</v>
       </c>
       <c r="I210" t="n">
-        <v>178056.0086912228</v>
+        <v>39577.20775500948</v>
       </c>
       <c r="J210" t="n">
-        <v>0.8780097741314695</v>
+        <v>0.8761220902924182</v>
       </c>
       <c r="K210" t="n">
-        <v>0.8930097741314695</v>
+        <v>0.8911220902924182</v>
       </c>
       <c r="L210" t="n">
-        <v>0.8930097741314695</v>
+        <v>0.8911220902924182</v>
       </c>
       <c r="M210" t="n">
-        <v>4830.84353433708</v>
+        <v>4820.631882087671</v>
       </c>
       <c r="N210" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O210" t="n">
-        <v>763572.1577111803</v>
+        <v>467823.5333572567</v>
       </c>
       <c r="P210" t="n">
         <v>0</v>
@@ -18150,31 +18150,31 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H211" t="n">
-        <v>34613.56000000002</v>
+        <v>16352.25999999999</v>
       </c>
       <c r="I211" t="n">
-        <v>180036.5455352302</v>
+        <v>40265.73978501521</v>
       </c>
       <c r="J211" t="n">
-        <v>0.8773331712751948</v>
+        <v>0.8750490786153562</v>
       </c>
       <c r="K211" t="n">
-        <v>0.8923331712751948</v>
+        <v>0.8900490786153562</v>
       </c>
       <c r="L211" t="n">
-        <v>0.8923331712751948</v>
+        <v>0.8900490786153562</v>
       </c>
       <c r="M211" t="n">
-        <v>4827.18336999372</v>
+        <v>4814.827296659203</v>
       </c>
       <c r="N211" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O211" t="n">
-        <v>724352.01782481</v>
+        <v>568492.0915460656</v>
       </c>
       <c r="P211" t="n">
         <v>0</v>
@@ -18234,31 +18234,31 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H212" t="n">
-        <v>34783.56000000002</v>
+        <v>16487.53999999999</v>
       </c>
       <c r="I212" t="n">
-        <v>181809.8437357042</v>
+        <v>40935.11507335251</v>
       </c>
       <c r="J212" t="n">
-        <v>0.8767305175731792</v>
+        <v>0.8740146809835386</v>
       </c>
       <c r="K212" t="n">
-        <v>0.8917305175731792</v>
+        <v>0.8890146809835386</v>
       </c>
       <c r="L212" t="n">
-        <v>0.8917305175731792</v>
+        <v>0.8890146809835386</v>
       </c>
       <c r="M212" t="n">
-        <v>4823.923242474221</v>
+        <v>4809.23159854217</v>
       </c>
       <c r="N212" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O212" t="n">
-        <v>636973.0364228842</v>
+        <v>505263.0919980721</v>
       </c>
       <c r="P212" t="n">
         <v>0</v>
@@ -18318,31 +18318,31 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H213" t="n">
-        <v>34946.75000000002</v>
+        <v>16626.05999999999</v>
       </c>
       <c r="I213" t="n">
-        <v>183520.2809633602</v>
+        <v>41626.24013408436</v>
       </c>
       <c r="J213" t="n">
-        <v>0.876152005469462</v>
+        <v>0.8729555091919998</v>
       </c>
       <c r="K213" t="n">
-        <v>0.891152005469462</v>
+        <v>0.8879555091919998</v>
       </c>
       <c r="L213" t="n">
-        <v>0.891152005469462</v>
+        <v>0.8879555091919998</v>
       </c>
       <c r="M213" t="n">
-        <v>4820.793711827711</v>
+        <v>4803.501881635226</v>
       </c>
       <c r="N213" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O213" t="n">
-        <v>646196.0359382295</v>
+        <v>505149.1443833222</v>
       </c>
       <c r="P213" t="n">
         <v>0</v>
@@ -18402,31 +18402,31 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H214" t="n">
-        <v>35112.83000000002</v>
+        <v>16736.69999999999</v>
       </c>
       <c r="I214" t="n">
-        <v>185269.2311998951</v>
+        <v>42182.41819477887</v>
       </c>
       <c r="J214" t="n">
-        <v>0.8755632482528105</v>
+        <v>0.8721095175155932</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8905632482528105</v>
+        <v>0.8871095175155932</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8905632482528105</v>
+        <v>0.8871095175155932</v>
       </c>
       <c r="M214" t="n">
-        <v>4817.608759013368</v>
+        <v>4798.925388142703</v>
       </c>
       <c r="N214" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O214" t="n">
-        <v>674688.1729588755</v>
+        <v>456115.2953144516</v>
       </c>
       <c r="P214" t="n">
         <v>0</v>
@@ -18486,31 +18486,31 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H215" t="n">
-        <v>35259.13000000003</v>
+        <v>16816.32999999999</v>
       </c>
       <c r="I215" t="n">
-        <v>186816.75419147</v>
+        <v>42584.99583459161</v>
       </c>
       <c r="J215" t="n">
-        <v>0.8750446115668995</v>
+        <v>0.8715006390160247</v>
       </c>
       <c r="K215" t="n">
-        <v>0.8900446115668995</v>
+        <v>0.8865006390160247</v>
       </c>
       <c r="L215" t="n">
-        <v>0.8900446115668995</v>
+        <v>0.8865006390160247</v>
       </c>
       <c r="M215" t="n">
-        <v>4814.803131624531</v>
+        <v>4795.631586833868</v>
       </c>
       <c r="N215" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O215" t="n">
-        <v>611658.1550555066</v>
+        <v>365072.8928978585</v>
       </c>
       <c r="P215" t="n">
         <v>0</v>
@@ -18570,31 +18570,31 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H216" t="n">
-        <v>35414.96000000003</v>
+        <v>16862.39</v>
       </c>
       <c r="I216" t="n">
-        <v>188472.1618490882</v>
+        <v>42818.72971200407</v>
       </c>
       <c r="J216" t="n">
-        <v>0.8744921908234577</v>
+        <v>0.8711484483380123</v>
       </c>
       <c r="K216" t="n">
-        <v>0.8894921908234578</v>
+        <v>0.8861484483380123</v>
       </c>
       <c r="L216" t="n">
-        <v>0.8894921908234578</v>
+        <v>0.8861484483380123</v>
       </c>
       <c r="M216" t="n">
-        <v>4811.814745322394</v>
+        <v>4793.726369098278</v>
       </c>
       <c r="N216" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O216" t="n">
-        <v>712369.7228940724</v>
+        <v>225349.9119644054</v>
       </c>
       <c r="P216" t="n">
         <v>0</v>
@@ -18654,31 +18654,31 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H217" t="n">
-        <v>35558.41000000003</v>
+        <v>16883.62</v>
       </c>
       <c r="I217" t="n">
-        <v>190002.5097122598</v>
+        <v>42926.67783396639</v>
       </c>
       <c r="J217" t="n">
-        <v>0.8739836574496099</v>
+        <v>0.8709861164210735</v>
       </c>
       <c r="K217" t="n">
-        <v>0.8889836574496099</v>
+        <v>0.8859861164210735</v>
       </c>
       <c r="L217" t="n">
-        <v>0.8889836574496099</v>
+        <v>0.8859861164210735</v>
       </c>
       <c r="M217" t="n">
-        <v>4809.063773012559</v>
+        <v>4792.848215113768</v>
       </c>
       <c r="N217" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O217" t="n">
-        <v>731186.7673934565</v>
+        <v>33553.01104474216</v>
       </c>
       <c r="P217" t="n">
         <v>0</v>
@@ -18738,31 +18738,31 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H218" t="n">
-        <v>35702.61000000002</v>
+        <v>16895.45</v>
       </c>
       <c r="I218" t="n">
-        <v>191547.0952710001</v>
+        <v>42986.88876608724</v>
       </c>
       <c r="J218" t="n">
-        <v>0.8734724653094296</v>
+        <v>0.8708956601527085</v>
       </c>
       <c r="K218" t="n">
-        <v>0.8884724653094296</v>
+        <v>0.8858956601527085</v>
       </c>
       <c r="L218" t="n">
-        <v>0.8884724653094296</v>
+        <v>0.8858956601527085</v>
       </c>
       <c r="M218" t="n">
-        <v>4806.298417787197</v>
+        <v>4792.358881075294</v>
       </c>
       <c r="N218" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O218" t="n">
-        <v>783652.01855018</v>
+        <v>23963.01774047266</v>
       </c>
       <c r="P218" t="n">
         <v>0</v>
@@ -18822,31 +18822,31 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H219" t="n">
-        <v>35848.96000000002</v>
+        <v>16911.73</v>
       </c>
       <c r="I219" t="n">
-        <v>193121.1037377842</v>
+        <v>43069.8177754143</v>
       </c>
       <c r="J219" t="n">
-        <v>0.8729536513724298</v>
+        <v>0.870771177646455</v>
       </c>
       <c r="K219" t="n">
-        <v>0.8879536513724298</v>
+        <v>0.885771177646455</v>
       </c>
       <c r="L219" t="n">
-        <v>0.8879536513724298</v>
+        <v>0.885771177646455</v>
       </c>
       <c r="M219" t="n">
-        <v>4803.491831537323</v>
+        <v>4791.685478019815</v>
       </c>
       <c r="N219" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O219" t="n">
-        <v>788002.8004446106</v>
+        <v>28752.13307728533</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
@@ -18906,31 +18906,31 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H220" t="n">
-        <v>36006.09000000002</v>
+        <v>16945.66</v>
       </c>
       <c r="I220" t="n">
-        <v>194818.2219283472</v>
+        <v>43242.91131021804</v>
       </c>
       <c r="J220" t="n">
-        <v>0.8723966221006785</v>
+        <v>0.8705117371404854</v>
       </c>
       <c r="K220" t="n">
-        <v>0.8873966221006785</v>
+        <v>0.8855117371404854</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8873966221006785</v>
+        <v>0.8855117371404854</v>
       </c>
       <c r="M220" t="n">
-        <v>4800.478514848272</v>
+        <v>4790.282003469913</v>
       </c>
       <c r="N220" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O220" t="n">
-        <v>753911.6721912692</v>
+        <v>52700.82114819351</v>
       </c>
       <c r="P220" t="n">
         <v>0</v>
@@ -18990,31 +18990,31 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H221" t="n">
-        <v>36200.02000000002</v>
+        <v>17016.62</v>
       </c>
       <c r="I221" t="n">
-        <v>196923.0431572081</v>
+        <v>43606.03513724707</v>
       </c>
       <c r="J221" t="n">
-        <v>0.8717091360275497</v>
+        <v>0.8699691524572079</v>
       </c>
       <c r="K221" t="n">
-        <v>0.8867091360275497</v>
+        <v>0.8849691524572079</v>
       </c>
       <c r="L221" t="n">
-        <v>0.8867091360275497</v>
+        <v>0.8849691524572079</v>
       </c>
       <c r="M221" t="n">
-        <v>4796.759476437353</v>
+        <v>4787.346826515561</v>
       </c>
       <c r="N221" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O221" t="n">
-        <v>839758.3242374924</v>
+        <v>363949.895539448</v>
       </c>
       <c r="P221" t="n">
         <v>0</v>
@@ -19074,31 +19074,31 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H222" t="n">
-        <v>36397.30000000002</v>
+        <v>17127.39999999999</v>
       </c>
       <c r="I222" t="n">
-        <v>199075.8276912227</v>
+        <v>44175.96534127448</v>
       </c>
       <c r="J222" t="n">
-        <v>0.8710097741314695</v>
+        <v>0.8691220902924182</v>
       </c>
       <c r="K222" t="n">
-        <v>0.8860097741314695</v>
+        <v>0.8841220902924182</v>
       </c>
       <c r="L222" t="n">
-        <v>0.8860097741314695</v>
+        <v>0.8841220902924182</v>
       </c>
       <c r="M222" t="n">
-        <v>4792.97619433708</v>
+        <v>4782.764542087672</v>
       </c>
       <c r="N222" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O222" t="n">
-        <v>757589.1179911802</v>
+        <v>464150.4013772568</v>
       </c>
       <c r="P222" t="n">
         <v>0</v>
@@ -19158,31 +19158,31 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H223" t="n">
-        <v>36588.16000000002</v>
+        <v>17267.73</v>
       </c>
       <c r="I223" t="n">
-        <v>201169.6933860302</v>
+        <v>44903.23420481022</v>
       </c>
       <c r="J223" t="n">
-        <v>0.8703331712751948</v>
+        <v>0.8680490786153561</v>
       </c>
       <c r="K223" t="n">
-        <v>0.8853331712751948</v>
+        <v>0.8830490786153561</v>
       </c>
       <c r="L223" t="n">
-        <v>0.8853331712751948</v>
+        <v>0.8830490786153561</v>
       </c>
       <c r="M223" t="n">
-        <v>4789.316029993719</v>
+        <v>4776.959956659202</v>
       </c>
       <c r="N223" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O223" t="n">
-        <v>718671.9168248099</v>
+        <v>564023.7454260655</v>
       </c>
       <c r="P223" t="n">
         <v>0</v>
@@ -19242,31 +19242,31 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H224" t="n">
-        <v>36758.16000000002</v>
+        <v>17403.00999999999</v>
       </c>
       <c r="I224" t="n">
-        <v>203043.9341865042</v>
+        <v>45609.95231962752</v>
       </c>
       <c r="J224" t="n">
-        <v>0.8697305175731792</v>
+        <v>0.8670146809835386</v>
       </c>
       <c r="K224" t="n">
-        <v>0.8847305175731792</v>
+        <v>0.8820146809835386</v>
       </c>
       <c r="L224" t="n">
-        <v>0.8847305175731792</v>
+        <v>0.8820146809835386</v>
       </c>
       <c r="M224" t="n">
-        <v>4786.055902474222</v>
+        <v>4771.36425854217</v>
       </c>
       <c r="N224" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O224" t="n">
-        <v>631974.547542884</v>
+        <v>501287.0212980721</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
@@ -19326,31 +19326,31 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H225" t="n">
-        <v>36921.35000000002</v>
+        <v>17541.53</v>
       </c>
       <c r="I225" t="n">
-        <v>204851.2703723602</v>
+        <v>46339.31457967935</v>
       </c>
       <c r="J225" t="n">
-        <v>0.869152005469462</v>
+        <v>0.8659555091919998</v>
       </c>
       <c r="K225" t="n">
-        <v>0.884152005469462</v>
+        <v>0.8809555091919998</v>
       </c>
       <c r="L225" t="n">
-        <v>0.884152005469462</v>
+        <v>0.8809555091919998</v>
       </c>
       <c r="M225" t="n">
-        <v>4782.926371827712</v>
+        <v>4765.634541635226</v>
       </c>
       <c r="N225" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O225" t="n">
-        <v>641121.8123782295</v>
+        <v>501169.2869493222</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
@@ -19410,31 +19410,31 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H226" t="n">
-        <v>37087.43000000002</v>
+        <v>17652.16999999999</v>
       </c>
       <c r="I226" t="n">
-        <v>206698.8355912951</v>
+        <v>46926.03381661387</v>
       </c>
       <c r="J226" t="n">
-        <v>0.8685632482528105</v>
+        <v>0.8651095175155932</v>
       </c>
       <c r="K226" t="n">
-        <v>0.8835632482528105</v>
+        <v>0.8801095175155932</v>
       </c>
       <c r="L226" t="n">
-        <v>0.8835632482528105</v>
+        <v>0.8801095175155932</v>
       </c>
       <c r="M226" t="n">
-        <v>4779.741419013369</v>
+        <v>4761.058048142703</v>
       </c>
       <c r="N226" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O226" t="n">
-        <v>669386.7453588756</v>
+        <v>452517.8980144516</v>
       </c>
       <c r="P226" t="n">
         <v>0</v>
@@ -19494,31 +19494,31 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H227" t="n">
-        <v>37233.73000000003</v>
+        <v>17731.8</v>
       </c>
       <c r="I227" t="n">
-        <v>208333.22859687</v>
+        <v>47350.59260125661</v>
       </c>
       <c r="J227" t="n">
-        <v>0.8680446115668995</v>
+        <v>0.8645006390160246</v>
       </c>
       <c r="K227" t="n">
-        <v>0.8830446115668995</v>
+        <v>0.8795006390160246</v>
       </c>
       <c r="L227" t="n">
-        <v>0.8830446115668995</v>
+        <v>0.8795006390160246</v>
       </c>
       <c r="M227" t="n">
-        <v>4776.935791624531</v>
+        <v>4757.764246833867</v>
       </c>
       <c r="N227" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O227" t="n">
-        <v>606849.0028755066</v>
+        <v>362191.1883238584</v>
       </c>
       <c r="P227" t="n">
         <v>0</v>
@@ -19578,31 +19578,31 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H228" t="n">
-        <v>37389.56000000003</v>
+        <v>17777.86</v>
       </c>
       <c r="I228" t="n">
-        <v>210081.1649918882</v>
+        <v>47597.04092712908</v>
       </c>
       <c r="J228" t="n">
-        <v>0.8674921908234577</v>
+        <v>0.8641484483380123</v>
       </c>
       <c r="K228" t="n">
-        <v>0.8824921908234578</v>
+        <v>0.8791484483380123</v>
       </c>
       <c r="L228" t="n">
-        <v>0.8824921908234578</v>
+        <v>0.8791484483380123</v>
       </c>
       <c r="M228" t="n">
-        <v>4773.947405322393</v>
+        <v>4755.859029098278</v>
       </c>
       <c r="N228" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O228" t="n">
-        <v>706765.3565740724</v>
+        <v>223570.1469844054</v>
       </c>
       <c r="P228" t="n">
         <v>0</v>
@@ -19662,31 +19662,31 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H229" t="n">
-        <v>37533.01000000002</v>
+        <v>17799.09</v>
       </c>
       <c r="I229" t="n">
-        <v>211696.6905960598</v>
+        <v>47710.8493995214</v>
       </c>
       <c r="J229" t="n">
-        <v>0.8669836574496099</v>
+        <v>0.8639861164210734</v>
       </c>
       <c r="K229" t="n">
-        <v>0.8819836574496099</v>
+        <v>0.8789861164210734</v>
       </c>
       <c r="L229" t="n">
-        <v>0.8819836574496099</v>
+        <v>0.8789861164210734</v>
       </c>
       <c r="M229" t="n">
-        <v>4771.196433012558</v>
+        <v>4754.980875113767</v>
       </c>
       <c r="N229" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O229" t="n">
-        <v>725430.9317134564</v>
+        <v>33287.93966474216</v>
       </c>
       <c r="P229" t="n">
         <v>0</v>
@@ -19746,31 +19746,31 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H230" t="n">
-        <v>37677.21000000002</v>
+        <v>17810.92</v>
       </c>
       <c r="I230" t="n">
-        <v>213326.8992308001</v>
+        <v>47774.32589667225</v>
       </c>
       <c r="J230" t="n">
-        <v>0.8664724653094296</v>
+        <v>0.8638956601527086</v>
       </c>
       <c r="K230" t="n">
-        <v>0.8814724653094296</v>
+        <v>0.8788956601527086</v>
       </c>
       <c r="L230" t="n">
-        <v>0.8814724653094296</v>
+        <v>0.8788956601527086</v>
       </c>
       <c r="M230" t="n">
-        <v>4768.431077787196</v>
+        <v>4754.491541075296</v>
       </c>
       <c r="N230" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O230" t="n">
-        <v>777479.6421301799</v>
+        <v>23773.68104047266</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -19830,31 +19830,31 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>146.35</v>
+        <v>16.28</v>
       </c>
       <c r="H231" t="n">
-        <v>37823.56000000002</v>
+        <v>17827.2</v>
       </c>
       <c r="I231" t="n">
-        <v>214987.8074005842</v>
+        <v>47861.74885347932</v>
       </c>
       <c r="J231" t="n">
-        <v>0.8659536513724297</v>
+        <v>0.8637711776464549</v>
       </c>
       <c r="K231" t="n">
-        <v>0.8809536513724298</v>
+        <v>0.878771177646455</v>
       </c>
       <c r="L231" t="n">
-        <v>0.8809536513724298</v>
+        <v>0.878771177646455</v>
       </c>
       <c r="M231" t="n">
-        <v>4765.624491537324</v>
+        <v>4753.818138019816</v>
       </c>
       <c r="N231" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O231" t="n">
-        <v>781792.5566846106</v>
+        <v>28524.92903728534</v>
       </c>
       <c r="P231" t="n">
         <v>0</v>
@@ -19914,31 +19914,31 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>157.13</v>
+        <v>33.93</v>
       </c>
       <c r="H232" t="n">
-        <v>37980.69000000002</v>
+        <v>17861.13</v>
       </c>
       <c r="I232" t="n">
-        <v>216778.2262425472</v>
+        <v>48044.20845941304</v>
       </c>
       <c r="J232" t="n">
-        <v>0.8653966221006785</v>
+        <v>0.8635117371404852</v>
       </c>
       <c r="K232" t="n">
-        <v>0.8803966221006785</v>
+        <v>0.8785117371404852</v>
       </c>
       <c r="L232" t="n">
-        <v>0.8803966221006785</v>
+        <v>0.8785117371404852</v>
       </c>
       <c r="M232" t="n">
-        <v>4762.611174848273</v>
+        <v>4752.414663469912</v>
       </c>
       <c r="N232" t="n">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="O232" t="n">
-        <v>747966.4998112693</v>
+        <v>52284.2804081935</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -19998,31 +19998,31 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>193.93</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="H233" t="n">
-        <v>38174.62000000002</v>
+        <v>17932.09</v>
       </c>
       <c r="I233" t="n">
-        <v>218998.1992268081</v>
+        <v>48426.92015580207</v>
       </c>
       <c r="J233" t="n">
-        <v>0.8647091360275497</v>
+        <v>0.8629691524572078</v>
       </c>
       <c r="K233" t="n">
-        <v>0.8797091360275497</v>
+        <v>0.8779691524572079</v>
       </c>
       <c r="L233" t="n">
-        <v>0.8797091360275497</v>
+        <v>0.8779691524572079</v>
       </c>
       <c r="M233" t="n">
-        <v>4758.892136437354</v>
+        <v>4749.479486515561</v>
       </c>
       <c r="N233" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="O233" t="n">
-        <v>833131.5397374922</v>
+        <v>361071.977699448</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -20082,31 +20082,31 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>197.28</v>
+        <v>110.78</v>
       </c>
       <c r="H234" t="n">
-        <v>38371.90000000002</v>
+        <v>18042.87</v>
       </c>
       <c r="I234" t="n">
-        <v>221268.1246792228</v>
+        <v>49027.43018180949</v>
       </c>
       <c r="J234" t="n">
-        <v>0.8640097741314695</v>
+        <v>0.8621220902924183</v>
       </c>
       <c r="K234" t="n">
-        <v>0.8790097741314695</v>
+        <v>0.8771220902924183</v>
       </c>
       <c r="L234" t="n">
-        <v>0.8790097741314695</v>
+        <v>0.8771220902924183</v>
       </c>
       <c r="M234" t="n">
-        <v>4755.10885433708</v>
+        <v>4744.897202087672</v>
       </c>
       <c r="N234" t="n">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O234" t="n">
-        <v>751606.0782711803</v>
+        <v>460477.2693972567</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -20166,31 +20166,31 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>190.86</v>
+        <v>140.33</v>
       </c>
       <c r="H235" t="n">
-        <v>38562.76000000002</v>
+        <v>18183.2</v>
       </c>
       <c r="I235" t="n">
-        <v>223475.3192248302</v>
+        <v>49793.43587887523</v>
       </c>
       <c r="J235" t="n">
-        <v>0.8633331712751948</v>
+        <v>0.8610490786153562</v>
       </c>
       <c r="K235" t="n">
-        <v>0.8783331712751948</v>
+        <v>0.8760490786153562</v>
       </c>
       <c r="L235" t="n">
-        <v>0.8783331712751948</v>
+        <v>0.8760490786153562</v>
       </c>
       <c r="M235" t="n">
-        <v>4751.448689993719</v>
+        <v>4739.092616659203</v>
       </c>
       <c r="N235" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O235" t="n">
-        <v>712991.8158248099</v>
+        <v>559555.3993060656</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -20250,31 +20250,31 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>170</v>
+        <v>135.28</v>
       </c>
       <c r="H236" t="n">
-        <v>38732.76000000002</v>
+        <v>18318.48</v>
       </c>
       <c r="I236" t="n">
-        <v>225450.5026253042</v>
+        <v>50537.49682017253</v>
       </c>
       <c r="J236" t="n">
-        <v>0.8627305175731792</v>
+        <v>0.8600146809835386</v>
       </c>
       <c r="K236" t="n">
-        <v>0.8777305175731792</v>
+        <v>0.8750146809835386</v>
       </c>
       <c r="L236" t="n">
-        <v>0.8777305175731792</v>
+        <v>0.8750146809835386</v>
       </c>
       <c r="M236" t="n">
-        <v>4748.188562474222</v>
+        <v>4733.496918542171</v>
       </c>
       <c r="N236" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O236" t="n">
-        <v>626976.0586628841</v>
+        <v>497310.9505980721</v>
       </c>
       <c r="P236" t="n">
         <v>0</v>
@@ -20334,31 +20334,31 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>163.19</v>
+        <v>138.52</v>
       </c>
       <c r="H237" t="n">
-        <v>38895.95000000002</v>
+        <v>18457</v>
       </c>
       <c r="I237" t="n">
-        <v>227354.7377693602</v>
+        <v>51305.09627954436</v>
       </c>
       <c r="J237" t="n">
-        <v>0.862152005469462</v>
+        <v>0.8589555091919998</v>
       </c>
       <c r="K237" t="n">
-        <v>0.877152005469462</v>
+        <v>0.8739555091919998</v>
       </c>
       <c r="L237" t="n">
-        <v>0.877152005469462</v>
+        <v>0.8739555091919998</v>
       </c>
       <c r="M237" t="n">
-        <v>4745.059031827711</v>
+        <v>4727.767201635226</v>
       </c>
       <c r="N237" t="n">
-        <v>134</v>
+        <v>105.1</v>
       </c>
       <c r="O237" t="n">
-        <v>636047.5888182295</v>
+        <v>497189.4295153221</v>
       </c>
       <c r="P237" t="n">
         <v>0</v>
@@ -20418,31 +20418,31 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>166.08</v>
+        <v>110.64</v>
       </c>
       <c r="H238" t="n">
-        <v>39062.03000000002</v>
+        <v>18567.64</v>
       </c>
       <c r="I238" t="n">
-        <v>229300.917970695</v>
+        <v>51922.35669271887</v>
       </c>
       <c r="J238" t="n">
-        <v>0.8615632482528106</v>
+        <v>0.8581095175155932</v>
       </c>
       <c r="K238" t="n">
-        <v>0.8765632482528106</v>
+        <v>0.8731095175155932</v>
       </c>
       <c r="L238" t="n">
-        <v>0.8765632482528106</v>
+        <v>0.8731095175155932</v>
       </c>
       <c r="M238" t="n">
-        <v>4741.87407901337</v>
+        <v>4723.190708142703</v>
       </c>
       <c r="N238" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O238" t="n">
-        <v>664085.3177588757</v>
+        <v>448920.5007144517</v>
       </c>
       <c r="P238" t="n">
         <v>0</v>
@@ -20502,31 +20502,31 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>146.3</v>
+        <v>79.63</v>
       </c>
       <c r="H239" t="n">
-        <v>39208.33000000002</v>
+        <v>18647.27</v>
       </c>
       <c r="I239" t="n">
-        <v>231022.18099027</v>
+        <v>52368.89662219162</v>
       </c>
       <c r="J239" t="n">
-        <v>0.8610446115668995</v>
+        <v>0.8575006390160247</v>
       </c>
       <c r="K239" t="n">
-        <v>0.8760446115668995</v>
+        <v>0.8725006390160247</v>
       </c>
       <c r="L239" t="n">
-        <v>0.8760446115668995</v>
+        <v>0.8725006390160247</v>
       </c>
       <c r="M239" t="n">
-        <v>4739.068451624531</v>
+        <v>4719.896906833867</v>
       </c>
       <c r="N239" t="n">
-        <v>127</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O239" t="n">
-        <v>602039.8506955068</v>
+        <v>359309.4837498585</v>
       </c>
       <c r="P239" t="n">
         <v>0</v>
@@ -20586,31 +20586,31 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>155.83</v>
+        <v>46.06</v>
       </c>
       <c r="H240" t="n">
-        <v>39364.16000000003</v>
+        <v>18693.33</v>
       </c>
       <c r="I240" t="n">
-        <v>232862.6461226883</v>
+        <v>52628.05939652408</v>
       </c>
       <c r="J240" t="n">
-        <v>0.8604921908234577</v>
+        <v>0.8571484483380123</v>
       </c>
       <c r="K240" t="n">
-        <v>0.8754921908234577</v>
+        <v>0.8721484483380123</v>
       </c>
       <c r="L240" t="n">
-        <v>0.8754921908234577</v>
+        <v>0.8721484483380123</v>
       </c>
       <c r="M240" t="n">
-        <v>4736.080065322393</v>
+        <v>4717.991689098278</v>
       </c>
       <c r="N240" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O240" t="n">
-        <v>701160.9902540724</v>
+        <v>221790.3820044054</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -20670,31 +20670,31 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>143.45</v>
+        <v>21.23</v>
       </c>
       <c r="H241" t="n">
-        <v>39507.61000000002</v>
+        <v>18714.56</v>
       </c>
       <c r="I241" t="n">
-        <v>234563.3494678598</v>
+        <v>52747.72821934641</v>
       </c>
       <c r="J241" t="n">
-        <v>0.8599836574496099</v>
+        <v>0.8569861164210735</v>
       </c>
       <c r="K241" t="n">
-        <v>0.8749836574496099</v>
+        <v>0.8719861164210735</v>
       </c>
       <c r="L241" t="n">
-        <v>0.8749836574496099</v>
+        <v>0.8719861164210735</v>
       </c>
       <c r="M241" t="n">
-        <v>4733.329093012559</v>
+        <v>4717.113535113767</v>
       </c>
       <c r="N241" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="O241" t="n">
-        <v>719675.0960334563</v>
+        <v>33022.86828474216</v>
       </c>
       <c r="P241" t="n">
         <v>0</v>
@@ -20754,28 +20754,28 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>144.2</v>
+        <v>11.83</v>
       </c>
       <c r="H242" t="n">
-        <v>39651.81000000002</v>
+        <v>18726.39</v>
       </c>
       <c r="I242" t="n">
-        <v>236279.1811786001</v>
+        <v>52814.47028152725</v>
       </c>
       <c r="J242" t="n">
-        <v>0.8594724653094297</v>
+        <v>0.8568956601527085</v>
       </c>
       <c r="K242" t="n">
-        <v>0.8744724653094297</v>
+        <v>0.8718956601527085</v>
       </c>
       <c r="L242" t="n">
-        <v>0.8744724653094297</v>
+        <v>0.8718956601527085</v>
       </c>
       <c r="M242" t="n">
-        <v>4730.563737787197</v>
+        <v>4716.624201075295</v>
       </c>
       <c r="N242" t="n">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="O242" t="n">
         <v>0</v>
@@ -20821,6 +20821,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>